--- a/doc/HR系统表单.xlsx
+++ b/doc/HR系统表单.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="105" windowWidth="19395" windowHeight="7380" activeTab="7"/>
+    <workbookView xWindow="600" yWindow="105" windowWidth="19395" windowHeight="7380"/>
   </bookViews>
   <sheets>
     <sheet name="人员明细" sheetId="1" r:id="rId1"/>
@@ -4003,19 +4003,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="7">
-    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
-    <numFmt numFmtId="177" formatCode="yyyy\-m\-d"/>
-    <numFmt numFmtId="178" formatCode="0_ "/>
-    <numFmt numFmtId="179" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="180" formatCode="0.00_ "/>
-    <numFmt numFmtId="181" formatCode="#,##0_ "/>
-    <numFmt numFmtId="182" formatCode="d"/>
+    <numFmt numFmtId="164" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-m\-d"/>
+    <numFmt numFmtId="166" formatCode="0_ "/>
+    <numFmt numFmtId="167" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="168" formatCode="0.00_ "/>
+    <numFmt numFmtId="169" formatCode="#,##0_ "/>
+    <numFmt numFmtId="170" formatCode="d"/>
   </numFmts>
   <fonts count="41">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -4035,7 +4035,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -4214,7 +4214,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -4229,7 +4229,7 @@
     <font>
       <b/>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -4260,7 +4260,7 @@
     <font>
       <sz val="9"/>
       <color indexed="8"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -4274,7 +4274,7 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -5203,10 +5203,10 @@
     <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5275,25 +5275,25 @@
     <xf numFmtId="0" fontId="13" fillId="3" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="17" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="17" fillId="0" borderId="32" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="17" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="17" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="17" fillId="3" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="17" fillId="3" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="17" fillId="3" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="32" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="3" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="3" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="3" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5302,52 +5302,52 @@
     <xf numFmtId="0" fontId="13" fillId="3" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="17" fillId="0" borderId="34" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="17" fillId="3" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="34" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="3" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="17" fillId="4" borderId="34" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="17" fillId="4" borderId="43" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="17" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="17" fillId="4" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="17" fillId="4" borderId="44" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="17" fillId="4" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="17" fillId="0" borderId="43" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="17" fillId="0" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="17" fillId="0" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="17" fillId="0" borderId="45" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="17" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="17" fillId="0" borderId="37" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="17" fillId="4" borderId="37" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="17" fillId="4" borderId="34" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="4" borderId="43" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="4" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="4" borderId="44" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="4" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="43" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="45" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="37" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="4" borderId="37" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5357,11 +5357,11 @@
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="178" fontId="17" fillId="0" borderId="47" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="47" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="17" fillId="4" borderId="47" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="17" fillId="4" borderId="47" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5384,25 +5384,25 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="17" fillId="4" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="17" fillId="4" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="17" fillId="4" borderId="49" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="17" fillId="4" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="4" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="4" borderId="49" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="50" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="17" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="17" fillId="2" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="17" fillId="2" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="17" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="2" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="2" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5417,20 +5417,20 @@
     <xf numFmtId="10" fontId="13" fillId="3" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="17" fillId="3" borderId="43" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="17" fillId="3" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="17" fillId="3" borderId="34" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="17" fillId="3" borderId="43" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="3" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="3" borderId="34" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="178" fontId="17" fillId="4" borderId="33" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="17" fillId="3" borderId="49" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="17" fillId="4" borderId="33" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="3" borderId="49" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="43" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5464,7 +5464,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="18" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="18" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="18" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5476,76 +5476,76 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="25" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="25" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="25" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="25" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="25" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="27" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="27" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="26" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="25" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="25" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="27" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="27" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="26" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="25" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="28" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="182" fontId="28" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="28" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="182" fontId="30" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="30" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="182" fontId="30" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="30" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="182" fontId="30" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="30" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="182" fontId="30" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="30" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5554,7 +5554,7 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="182" fontId="33" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="33" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5677,31 +5677,391 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="22" fillId="3" borderId="34" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="22" fillId="3" borderId="54" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="22" fillId="3" borderId="61" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="22" fillId="3" borderId="47" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="22" fillId="3" borderId="56" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="22" fillId="3" borderId="63" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="22" fillId="3" borderId="45" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="22" fillId="3" borderId="57" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="22" fillId="3" borderId="64" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="40" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="41" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="42" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="46" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="43" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="44" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="41" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="48" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="43" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="13" fillId="3" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="13" fillId="3" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="13" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="13" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="13" fillId="3" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="13" fillId="3" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="40" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="41" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="48" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="43" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="47" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="53" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="34" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="32" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="51" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="33" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="52" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="3" borderId="34" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="3" borderId="54" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="3" borderId="61" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="3" borderId="47" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="3" borderId="56" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="3" borderId="63" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="3" borderId="45" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="3" borderId="57" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="3" borderId="64" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="44" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5752,391 +6112,31 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="59" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="22" fillId="0" borderId="38" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="22" fillId="0" borderId="37" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="22" fillId="0" borderId="42" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="22" fillId="0" borderId="41" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="22" fillId="0" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="22" fillId="0" borderId="59" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="22" fillId="3" borderId="33" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="22" fillId="3" borderId="55" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="22" fillId="3" borderId="62" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="13" fillId="3" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="13" fillId="3" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="43" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="17" fillId="0" borderId="47" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="17" fillId="0" borderId="53" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="17" fillId="0" borderId="34" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="17" fillId="0" borderId="32" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="51" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="17" fillId="0" borderId="33" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="17" fillId="0" borderId="52" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="40" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="13" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="41" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="48" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="13" fillId="3" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="43" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="13" fillId="3" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="13" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="44" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="41" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="48" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="43" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="40" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="41" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="42" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="46" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="38" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="37" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="42" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="41" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="59" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="3" borderId="33" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="3" borderId="55" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="3" borderId="62" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6451,15 +6451,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="6.625" customWidth="1"/>
-    <col min="11" max="11" width="10.25" customWidth="1"/>
-    <col min="24" max="24" width="10.625" customWidth="1"/>
+    <col min="4" max="4" width="6.5703125" customWidth="1"/>
+    <col min="11" max="11" width="10.28515625" customWidth="1"/>
+    <col min="24" max="24" width="10.5703125" customWidth="1"/>
     <col min="31" max="31" width="17" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6682,830 +6682,830 @@
   <cols>
     <col min="1" max="1" width="4" style="28" customWidth="1"/>
     <col min="2" max="2" width="5" style="28" customWidth="1"/>
-    <col min="3" max="3" width="5.375" style="28" customWidth="1"/>
-    <col min="4" max="5" width="4.375" style="63" customWidth="1"/>
-    <col min="6" max="12" width="4.375" style="28" customWidth="1"/>
-    <col min="13" max="13" width="5.125" style="98" customWidth="1"/>
-    <col min="14" max="14" width="4.125" style="28" customWidth="1"/>
+    <col min="3" max="3" width="5.42578125" style="28" customWidth="1"/>
+    <col min="4" max="5" width="4.42578125" style="63" customWidth="1"/>
+    <col min="6" max="12" width="4.42578125" style="28" customWidth="1"/>
+    <col min="13" max="13" width="5.140625" style="98" customWidth="1"/>
+    <col min="14" max="14" width="4.140625" style="28" customWidth="1"/>
     <col min="15" max="15" width="6" style="99" customWidth="1"/>
-    <col min="16" max="18" width="4.625" style="99" customWidth="1"/>
+    <col min="16" max="18" width="4.5703125" style="99" customWidth="1"/>
     <col min="19" max="19" width="6" style="28" customWidth="1"/>
-    <col min="20" max="20" width="11.875" style="28" customWidth="1"/>
+    <col min="20" max="20" width="11.85546875" style="28" customWidth="1"/>
     <col min="21" max="256" width="9" style="28"/>
     <col min="257" max="257" width="4" style="28" customWidth="1"/>
     <col min="258" max="258" width="5" style="28" customWidth="1"/>
-    <col min="259" max="259" width="5.375" style="28" customWidth="1"/>
-    <col min="260" max="268" width="4.375" style="28" customWidth="1"/>
-    <col min="269" max="269" width="5.125" style="28" customWidth="1"/>
-    <col min="270" max="270" width="4.125" style="28" customWidth="1"/>
+    <col min="259" max="259" width="5.42578125" style="28" customWidth="1"/>
+    <col min="260" max="268" width="4.42578125" style="28" customWidth="1"/>
+    <col min="269" max="269" width="5.140625" style="28" customWidth="1"/>
+    <col min="270" max="270" width="4.140625" style="28" customWidth="1"/>
     <col min="271" max="271" width="6" style="28" customWidth="1"/>
-    <col min="272" max="274" width="4.625" style="28" customWidth="1"/>
+    <col min="272" max="274" width="4.5703125" style="28" customWidth="1"/>
     <col min="275" max="275" width="6" style="28" customWidth="1"/>
-    <col min="276" max="276" width="11.875" style="28" customWidth="1"/>
+    <col min="276" max="276" width="11.85546875" style="28" customWidth="1"/>
     <col min="277" max="512" width="9" style="28"/>
     <col min="513" max="513" width="4" style="28" customWidth="1"/>
     <col min="514" max="514" width="5" style="28" customWidth="1"/>
-    <col min="515" max="515" width="5.375" style="28" customWidth="1"/>
-    <col min="516" max="524" width="4.375" style="28" customWidth="1"/>
-    <col min="525" max="525" width="5.125" style="28" customWidth="1"/>
-    <col min="526" max="526" width="4.125" style="28" customWidth="1"/>
+    <col min="515" max="515" width="5.42578125" style="28" customWidth="1"/>
+    <col min="516" max="524" width="4.42578125" style="28" customWidth="1"/>
+    <col min="525" max="525" width="5.140625" style="28" customWidth="1"/>
+    <col min="526" max="526" width="4.140625" style="28" customWidth="1"/>
     <col min="527" max="527" width="6" style="28" customWidth="1"/>
-    <col min="528" max="530" width="4.625" style="28" customWidth="1"/>
+    <col min="528" max="530" width="4.5703125" style="28" customWidth="1"/>
     <col min="531" max="531" width="6" style="28" customWidth="1"/>
-    <col min="532" max="532" width="11.875" style="28" customWidth="1"/>
+    <col min="532" max="532" width="11.85546875" style="28" customWidth="1"/>
     <col min="533" max="768" width="9" style="28"/>
     <col min="769" max="769" width="4" style="28" customWidth="1"/>
     <col min="770" max="770" width="5" style="28" customWidth="1"/>
-    <col min="771" max="771" width="5.375" style="28" customWidth="1"/>
-    <col min="772" max="780" width="4.375" style="28" customWidth="1"/>
-    <col min="781" max="781" width="5.125" style="28" customWidth="1"/>
-    <col min="782" max="782" width="4.125" style="28" customWidth="1"/>
+    <col min="771" max="771" width="5.42578125" style="28" customWidth="1"/>
+    <col min="772" max="780" width="4.42578125" style="28" customWidth="1"/>
+    <col min="781" max="781" width="5.140625" style="28" customWidth="1"/>
+    <col min="782" max="782" width="4.140625" style="28" customWidth="1"/>
     <col min="783" max="783" width="6" style="28" customWidth="1"/>
-    <col min="784" max="786" width="4.625" style="28" customWidth="1"/>
+    <col min="784" max="786" width="4.5703125" style="28" customWidth="1"/>
     <col min="787" max="787" width="6" style="28" customWidth="1"/>
-    <col min="788" max="788" width="11.875" style="28" customWidth="1"/>
+    <col min="788" max="788" width="11.85546875" style="28" customWidth="1"/>
     <col min="789" max="1024" width="9" style="28"/>
     <col min="1025" max="1025" width="4" style="28" customWidth="1"/>
     <col min="1026" max="1026" width="5" style="28" customWidth="1"/>
-    <col min="1027" max="1027" width="5.375" style="28" customWidth="1"/>
-    <col min="1028" max="1036" width="4.375" style="28" customWidth="1"/>
-    <col min="1037" max="1037" width="5.125" style="28" customWidth="1"/>
-    <col min="1038" max="1038" width="4.125" style="28" customWidth="1"/>
+    <col min="1027" max="1027" width="5.42578125" style="28" customWidth="1"/>
+    <col min="1028" max="1036" width="4.42578125" style="28" customWidth="1"/>
+    <col min="1037" max="1037" width="5.140625" style="28" customWidth="1"/>
+    <col min="1038" max="1038" width="4.140625" style="28" customWidth="1"/>
     <col min="1039" max="1039" width="6" style="28" customWidth="1"/>
-    <col min="1040" max="1042" width="4.625" style="28" customWidth="1"/>
+    <col min="1040" max="1042" width="4.5703125" style="28" customWidth="1"/>
     <col min="1043" max="1043" width="6" style="28" customWidth="1"/>
-    <col min="1044" max="1044" width="11.875" style="28" customWidth="1"/>
+    <col min="1044" max="1044" width="11.85546875" style="28" customWidth="1"/>
     <col min="1045" max="1280" width="9" style="28"/>
     <col min="1281" max="1281" width="4" style="28" customWidth="1"/>
     <col min="1282" max="1282" width="5" style="28" customWidth="1"/>
-    <col min="1283" max="1283" width="5.375" style="28" customWidth="1"/>
-    <col min="1284" max="1292" width="4.375" style="28" customWidth="1"/>
-    <col min="1293" max="1293" width="5.125" style="28" customWidth="1"/>
-    <col min="1294" max="1294" width="4.125" style="28" customWidth="1"/>
+    <col min="1283" max="1283" width="5.42578125" style="28" customWidth="1"/>
+    <col min="1284" max="1292" width="4.42578125" style="28" customWidth="1"/>
+    <col min="1293" max="1293" width="5.140625" style="28" customWidth="1"/>
+    <col min="1294" max="1294" width="4.140625" style="28" customWidth="1"/>
     <col min="1295" max="1295" width="6" style="28" customWidth="1"/>
-    <col min="1296" max="1298" width="4.625" style="28" customWidth="1"/>
+    <col min="1296" max="1298" width="4.5703125" style="28" customWidth="1"/>
     <col min="1299" max="1299" width="6" style="28" customWidth="1"/>
-    <col min="1300" max="1300" width="11.875" style="28" customWidth="1"/>
+    <col min="1300" max="1300" width="11.85546875" style="28" customWidth="1"/>
     <col min="1301" max="1536" width="9" style="28"/>
     <col min="1537" max="1537" width="4" style="28" customWidth="1"/>
     <col min="1538" max="1538" width="5" style="28" customWidth="1"/>
-    <col min="1539" max="1539" width="5.375" style="28" customWidth="1"/>
-    <col min="1540" max="1548" width="4.375" style="28" customWidth="1"/>
-    <col min="1549" max="1549" width="5.125" style="28" customWidth="1"/>
-    <col min="1550" max="1550" width="4.125" style="28" customWidth="1"/>
+    <col min="1539" max="1539" width="5.42578125" style="28" customWidth="1"/>
+    <col min="1540" max="1548" width="4.42578125" style="28" customWidth="1"/>
+    <col min="1549" max="1549" width="5.140625" style="28" customWidth="1"/>
+    <col min="1550" max="1550" width="4.140625" style="28" customWidth="1"/>
     <col min="1551" max="1551" width="6" style="28" customWidth="1"/>
-    <col min="1552" max="1554" width="4.625" style="28" customWidth="1"/>
+    <col min="1552" max="1554" width="4.5703125" style="28" customWidth="1"/>
     <col min="1555" max="1555" width="6" style="28" customWidth="1"/>
-    <col min="1556" max="1556" width="11.875" style="28" customWidth="1"/>
+    <col min="1556" max="1556" width="11.85546875" style="28" customWidth="1"/>
     <col min="1557" max="1792" width="9" style="28"/>
     <col min="1793" max="1793" width="4" style="28" customWidth="1"/>
     <col min="1794" max="1794" width="5" style="28" customWidth="1"/>
-    <col min="1795" max="1795" width="5.375" style="28" customWidth="1"/>
-    <col min="1796" max="1804" width="4.375" style="28" customWidth="1"/>
-    <col min="1805" max="1805" width="5.125" style="28" customWidth="1"/>
-    <col min="1806" max="1806" width="4.125" style="28" customWidth="1"/>
+    <col min="1795" max="1795" width="5.42578125" style="28" customWidth="1"/>
+    <col min="1796" max="1804" width="4.42578125" style="28" customWidth="1"/>
+    <col min="1805" max="1805" width="5.140625" style="28" customWidth="1"/>
+    <col min="1806" max="1806" width="4.140625" style="28" customWidth="1"/>
     <col min="1807" max="1807" width="6" style="28" customWidth="1"/>
-    <col min="1808" max="1810" width="4.625" style="28" customWidth="1"/>
+    <col min="1808" max="1810" width="4.5703125" style="28" customWidth="1"/>
     <col min="1811" max="1811" width="6" style="28" customWidth="1"/>
-    <col min="1812" max="1812" width="11.875" style="28" customWidth="1"/>
+    <col min="1812" max="1812" width="11.85546875" style="28" customWidth="1"/>
     <col min="1813" max="2048" width="9" style="28"/>
     <col min="2049" max="2049" width="4" style="28" customWidth="1"/>
     <col min="2050" max="2050" width="5" style="28" customWidth="1"/>
-    <col min="2051" max="2051" width="5.375" style="28" customWidth="1"/>
-    <col min="2052" max="2060" width="4.375" style="28" customWidth="1"/>
-    <col min="2061" max="2061" width="5.125" style="28" customWidth="1"/>
-    <col min="2062" max="2062" width="4.125" style="28" customWidth="1"/>
+    <col min="2051" max="2051" width="5.42578125" style="28" customWidth="1"/>
+    <col min="2052" max="2060" width="4.42578125" style="28" customWidth="1"/>
+    <col min="2061" max="2061" width="5.140625" style="28" customWidth="1"/>
+    <col min="2062" max="2062" width="4.140625" style="28" customWidth="1"/>
     <col min="2063" max="2063" width="6" style="28" customWidth="1"/>
-    <col min="2064" max="2066" width="4.625" style="28" customWidth="1"/>
+    <col min="2064" max="2066" width="4.5703125" style="28" customWidth="1"/>
     <col min="2067" max="2067" width="6" style="28" customWidth="1"/>
-    <col min="2068" max="2068" width="11.875" style="28" customWidth="1"/>
+    <col min="2068" max="2068" width="11.85546875" style="28" customWidth="1"/>
     <col min="2069" max="2304" width="9" style="28"/>
     <col min="2305" max="2305" width="4" style="28" customWidth="1"/>
     <col min="2306" max="2306" width="5" style="28" customWidth="1"/>
-    <col min="2307" max="2307" width="5.375" style="28" customWidth="1"/>
-    <col min="2308" max="2316" width="4.375" style="28" customWidth="1"/>
-    <col min="2317" max="2317" width="5.125" style="28" customWidth="1"/>
-    <col min="2318" max="2318" width="4.125" style="28" customWidth="1"/>
+    <col min="2307" max="2307" width="5.42578125" style="28" customWidth="1"/>
+    <col min="2308" max="2316" width="4.42578125" style="28" customWidth="1"/>
+    <col min="2317" max="2317" width="5.140625" style="28" customWidth="1"/>
+    <col min="2318" max="2318" width="4.140625" style="28" customWidth="1"/>
     <col min="2319" max="2319" width="6" style="28" customWidth="1"/>
-    <col min="2320" max="2322" width="4.625" style="28" customWidth="1"/>
+    <col min="2320" max="2322" width="4.5703125" style="28" customWidth="1"/>
     <col min="2323" max="2323" width="6" style="28" customWidth="1"/>
-    <col min="2324" max="2324" width="11.875" style="28" customWidth="1"/>
+    <col min="2324" max="2324" width="11.85546875" style="28" customWidth="1"/>
     <col min="2325" max="2560" width="9" style="28"/>
     <col min="2561" max="2561" width="4" style="28" customWidth="1"/>
     <col min="2562" max="2562" width="5" style="28" customWidth="1"/>
-    <col min="2563" max="2563" width="5.375" style="28" customWidth="1"/>
-    <col min="2564" max="2572" width="4.375" style="28" customWidth="1"/>
-    <col min="2573" max="2573" width="5.125" style="28" customWidth="1"/>
-    <col min="2574" max="2574" width="4.125" style="28" customWidth="1"/>
+    <col min="2563" max="2563" width="5.42578125" style="28" customWidth="1"/>
+    <col min="2564" max="2572" width="4.42578125" style="28" customWidth="1"/>
+    <col min="2573" max="2573" width="5.140625" style="28" customWidth="1"/>
+    <col min="2574" max="2574" width="4.140625" style="28" customWidth="1"/>
     <col min="2575" max="2575" width="6" style="28" customWidth="1"/>
-    <col min="2576" max="2578" width="4.625" style="28" customWidth="1"/>
+    <col min="2576" max="2578" width="4.5703125" style="28" customWidth="1"/>
     <col min="2579" max="2579" width="6" style="28" customWidth="1"/>
-    <col min="2580" max="2580" width="11.875" style="28" customWidth="1"/>
+    <col min="2580" max="2580" width="11.85546875" style="28" customWidth="1"/>
     <col min="2581" max="2816" width="9" style="28"/>
     <col min="2817" max="2817" width="4" style="28" customWidth="1"/>
     <col min="2818" max="2818" width="5" style="28" customWidth="1"/>
-    <col min="2819" max="2819" width="5.375" style="28" customWidth="1"/>
-    <col min="2820" max="2828" width="4.375" style="28" customWidth="1"/>
-    <col min="2829" max="2829" width="5.125" style="28" customWidth="1"/>
-    <col min="2830" max="2830" width="4.125" style="28" customWidth="1"/>
+    <col min="2819" max="2819" width="5.42578125" style="28" customWidth="1"/>
+    <col min="2820" max="2828" width="4.42578125" style="28" customWidth="1"/>
+    <col min="2829" max="2829" width="5.140625" style="28" customWidth="1"/>
+    <col min="2830" max="2830" width="4.140625" style="28" customWidth="1"/>
     <col min="2831" max="2831" width="6" style="28" customWidth="1"/>
-    <col min="2832" max="2834" width="4.625" style="28" customWidth="1"/>
+    <col min="2832" max="2834" width="4.5703125" style="28" customWidth="1"/>
     <col min="2835" max="2835" width="6" style="28" customWidth="1"/>
-    <col min="2836" max="2836" width="11.875" style="28" customWidth="1"/>
+    <col min="2836" max="2836" width="11.85546875" style="28" customWidth="1"/>
     <col min="2837" max="3072" width="9" style="28"/>
     <col min="3073" max="3073" width="4" style="28" customWidth="1"/>
     <col min="3074" max="3074" width="5" style="28" customWidth="1"/>
-    <col min="3075" max="3075" width="5.375" style="28" customWidth="1"/>
-    <col min="3076" max="3084" width="4.375" style="28" customWidth="1"/>
-    <col min="3085" max="3085" width="5.125" style="28" customWidth="1"/>
-    <col min="3086" max="3086" width="4.125" style="28" customWidth="1"/>
+    <col min="3075" max="3075" width="5.42578125" style="28" customWidth="1"/>
+    <col min="3076" max="3084" width="4.42578125" style="28" customWidth="1"/>
+    <col min="3085" max="3085" width="5.140625" style="28" customWidth="1"/>
+    <col min="3086" max="3086" width="4.140625" style="28" customWidth="1"/>
     <col min="3087" max="3087" width="6" style="28" customWidth="1"/>
-    <col min="3088" max="3090" width="4.625" style="28" customWidth="1"/>
+    <col min="3088" max="3090" width="4.5703125" style="28" customWidth="1"/>
     <col min="3091" max="3091" width="6" style="28" customWidth="1"/>
-    <col min="3092" max="3092" width="11.875" style="28" customWidth="1"/>
+    <col min="3092" max="3092" width="11.85546875" style="28" customWidth="1"/>
     <col min="3093" max="3328" width="9" style="28"/>
     <col min="3329" max="3329" width="4" style="28" customWidth="1"/>
     <col min="3330" max="3330" width="5" style="28" customWidth="1"/>
-    <col min="3331" max="3331" width="5.375" style="28" customWidth="1"/>
-    <col min="3332" max="3340" width="4.375" style="28" customWidth="1"/>
-    <col min="3341" max="3341" width="5.125" style="28" customWidth="1"/>
-    <col min="3342" max="3342" width="4.125" style="28" customWidth="1"/>
+    <col min="3331" max="3331" width="5.42578125" style="28" customWidth="1"/>
+    <col min="3332" max="3340" width="4.42578125" style="28" customWidth="1"/>
+    <col min="3341" max="3341" width="5.140625" style="28" customWidth="1"/>
+    <col min="3342" max="3342" width="4.140625" style="28" customWidth="1"/>
     <col min="3343" max="3343" width="6" style="28" customWidth="1"/>
-    <col min="3344" max="3346" width="4.625" style="28" customWidth="1"/>
+    <col min="3344" max="3346" width="4.5703125" style="28" customWidth="1"/>
     <col min="3347" max="3347" width="6" style="28" customWidth="1"/>
-    <col min="3348" max="3348" width="11.875" style="28" customWidth="1"/>
+    <col min="3348" max="3348" width="11.85546875" style="28" customWidth="1"/>
     <col min="3349" max="3584" width="9" style="28"/>
     <col min="3585" max="3585" width="4" style="28" customWidth="1"/>
     <col min="3586" max="3586" width="5" style="28" customWidth="1"/>
-    <col min="3587" max="3587" width="5.375" style="28" customWidth="1"/>
-    <col min="3588" max="3596" width="4.375" style="28" customWidth="1"/>
-    <col min="3597" max="3597" width="5.125" style="28" customWidth="1"/>
-    <col min="3598" max="3598" width="4.125" style="28" customWidth="1"/>
+    <col min="3587" max="3587" width="5.42578125" style="28" customWidth="1"/>
+    <col min="3588" max="3596" width="4.42578125" style="28" customWidth="1"/>
+    <col min="3597" max="3597" width="5.140625" style="28" customWidth="1"/>
+    <col min="3598" max="3598" width="4.140625" style="28" customWidth="1"/>
     <col min="3599" max="3599" width="6" style="28" customWidth="1"/>
-    <col min="3600" max="3602" width="4.625" style="28" customWidth="1"/>
+    <col min="3600" max="3602" width="4.5703125" style="28" customWidth="1"/>
     <col min="3603" max="3603" width="6" style="28" customWidth="1"/>
-    <col min="3604" max="3604" width="11.875" style="28" customWidth="1"/>
+    <col min="3604" max="3604" width="11.85546875" style="28" customWidth="1"/>
     <col min="3605" max="3840" width="9" style="28"/>
     <col min="3841" max="3841" width="4" style="28" customWidth="1"/>
     <col min="3842" max="3842" width="5" style="28" customWidth="1"/>
-    <col min="3843" max="3843" width="5.375" style="28" customWidth="1"/>
-    <col min="3844" max="3852" width="4.375" style="28" customWidth="1"/>
-    <col min="3853" max="3853" width="5.125" style="28" customWidth="1"/>
-    <col min="3854" max="3854" width="4.125" style="28" customWidth="1"/>
+    <col min="3843" max="3843" width="5.42578125" style="28" customWidth="1"/>
+    <col min="3844" max="3852" width="4.42578125" style="28" customWidth="1"/>
+    <col min="3853" max="3853" width="5.140625" style="28" customWidth="1"/>
+    <col min="3854" max="3854" width="4.140625" style="28" customWidth="1"/>
     <col min="3855" max="3855" width="6" style="28" customWidth="1"/>
-    <col min="3856" max="3858" width="4.625" style="28" customWidth="1"/>
+    <col min="3856" max="3858" width="4.5703125" style="28" customWidth="1"/>
     <col min="3859" max="3859" width="6" style="28" customWidth="1"/>
-    <col min="3860" max="3860" width="11.875" style="28" customWidth="1"/>
+    <col min="3860" max="3860" width="11.85546875" style="28" customWidth="1"/>
     <col min="3861" max="4096" width="9" style="28"/>
     <col min="4097" max="4097" width="4" style="28" customWidth="1"/>
     <col min="4098" max="4098" width="5" style="28" customWidth="1"/>
-    <col min="4099" max="4099" width="5.375" style="28" customWidth="1"/>
-    <col min="4100" max="4108" width="4.375" style="28" customWidth="1"/>
-    <col min="4109" max="4109" width="5.125" style="28" customWidth="1"/>
-    <col min="4110" max="4110" width="4.125" style="28" customWidth="1"/>
+    <col min="4099" max="4099" width="5.42578125" style="28" customWidth="1"/>
+    <col min="4100" max="4108" width="4.42578125" style="28" customWidth="1"/>
+    <col min="4109" max="4109" width="5.140625" style="28" customWidth="1"/>
+    <col min="4110" max="4110" width="4.140625" style="28" customWidth="1"/>
     <col min="4111" max="4111" width="6" style="28" customWidth="1"/>
-    <col min="4112" max="4114" width="4.625" style="28" customWidth="1"/>
+    <col min="4112" max="4114" width="4.5703125" style="28" customWidth="1"/>
     <col min="4115" max="4115" width="6" style="28" customWidth="1"/>
-    <col min="4116" max="4116" width="11.875" style="28" customWidth="1"/>
+    <col min="4116" max="4116" width="11.85546875" style="28" customWidth="1"/>
     <col min="4117" max="4352" width="9" style="28"/>
     <col min="4353" max="4353" width="4" style="28" customWidth="1"/>
     <col min="4354" max="4354" width="5" style="28" customWidth="1"/>
-    <col min="4355" max="4355" width="5.375" style="28" customWidth="1"/>
-    <col min="4356" max="4364" width="4.375" style="28" customWidth="1"/>
-    <col min="4365" max="4365" width="5.125" style="28" customWidth="1"/>
-    <col min="4366" max="4366" width="4.125" style="28" customWidth="1"/>
+    <col min="4355" max="4355" width="5.42578125" style="28" customWidth="1"/>
+    <col min="4356" max="4364" width="4.42578125" style="28" customWidth="1"/>
+    <col min="4365" max="4365" width="5.140625" style="28" customWidth="1"/>
+    <col min="4366" max="4366" width="4.140625" style="28" customWidth="1"/>
     <col min="4367" max="4367" width="6" style="28" customWidth="1"/>
-    <col min="4368" max="4370" width="4.625" style="28" customWidth="1"/>
+    <col min="4368" max="4370" width="4.5703125" style="28" customWidth="1"/>
     <col min="4371" max="4371" width="6" style="28" customWidth="1"/>
-    <col min="4372" max="4372" width="11.875" style="28" customWidth="1"/>
+    <col min="4372" max="4372" width="11.85546875" style="28" customWidth="1"/>
     <col min="4373" max="4608" width="9" style="28"/>
     <col min="4609" max="4609" width="4" style="28" customWidth="1"/>
     <col min="4610" max="4610" width="5" style="28" customWidth="1"/>
-    <col min="4611" max="4611" width="5.375" style="28" customWidth="1"/>
-    <col min="4612" max="4620" width="4.375" style="28" customWidth="1"/>
-    <col min="4621" max="4621" width="5.125" style="28" customWidth="1"/>
-    <col min="4622" max="4622" width="4.125" style="28" customWidth="1"/>
+    <col min="4611" max="4611" width="5.42578125" style="28" customWidth="1"/>
+    <col min="4612" max="4620" width="4.42578125" style="28" customWidth="1"/>
+    <col min="4621" max="4621" width="5.140625" style="28" customWidth="1"/>
+    <col min="4622" max="4622" width="4.140625" style="28" customWidth="1"/>
     <col min="4623" max="4623" width="6" style="28" customWidth="1"/>
-    <col min="4624" max="4626" width="4.625" style="28" customWidth="1"/>
+    <col min="4624" max="4626" width="4.5703125" style="28" customWidth="1"/>
     <col min="4627" max="4627" width="6" style="28" customWidth="1"/>
-    <col min="4628" max="4628" width="11.875" style="28" customWidth="1"/>
+    <col min="4628" max="4628" width="11.85546875" style="28" customWidth="1"/>
     <col min="4629" max="4864" width="9" style="28"/>
     <col min="4865" max="4865" width="4" style="28" customWidth="1"/>
     <col min="4866" max="4866" width="5" style="28" customWidth="1"/>
-    <col min="4867" max="4867" width="5.375" style="28" customWidth="1"/>
-    <col min="4868" max="4876" width="4.375" style="28" customWidth="1"/>
-    <col min="4877" max="4877" width="5.125" style="28" customWidth="1"/>
-    <col min="4878" max="4878" width="4.125" style="28" customWidth="1"/>
+    <col min="4867" max="4867" width="5.42578125" style="28" customWidth="1"/>
+    <col min="4868" max="4876" width="4.42578125" style="28" customWidth="1"/>
+    <col min="4877" max="4877" width="5.140625" style="28" customWidth="1"/>
+    <col min="4878" max="4878" width="4.140625" style="28" customWidth="1"/>
     <col min="4879" max="4879" width="6" style="28" customWidth="1"/>
-    <col min="4880" max="4882" width="4.625" style="28" customWidth="1"/>
+    <col min="4880" max="4882" width="4.5703125" style="28" customWidth="1"/>
     <col min="4883" max="4883" width="6" style="28" customWidth="1"/>
-    <col min="4884" max="4884" width="11.875" style="28" customWidth="1"/>
+    <col min="4884" max="4884" width="11.85546875" style="28" customWidth="1"/>
     <col min="4885" max="5120" width="9" style="28"/>
     <col min="5121" max="5121" width="4" style="28" customWidth="1"/>
     <col min="5122" max="5122" width="5" style="28" customWidth="1"/>
-    <col min="5123" max="5123" width="5.375" style="28" customWidth="1"/>
-    <col min="5124" max="5132" width="4.375" style="28" customWidth="1"/>
-    <col min="5133" max="5133" width="5.125" style="28" customWidth="1"/>
-    <col min="5134" max="5134" width="4.125" style="28" customWidth="1"/>
+    <col min="5123" max="5123" width="5.42578125" style="28" customWidth="1"/>
+    <col min="5124" max="5132" width="4.42578125" style="28" customWidth="1"/>
+    <col min="5133" max="5133" width="5.140625" style="28" customWidth="1"/>
+    <col min="5134" max="5134" width="4.140625" style="28" customWidth="1"/>
     <col min="5135" max="5135" width="6" style="28" customWidth="1"/>
-    <col min="5136" max="5138" width="4.625" style="28" customWidth="1"/>
+    <col min="5136" max="5138" width="4.5703125" style="28" customWidth="1"/>
     <col min="5139" max="5139" width="6" style="28" customWidth="1"/>
-    <col min="5140" max="5140" width="11.875" style="28" customWidth="1"/>
+    <col min="5140" max="5140" width="11.85546875" style="28" customWidth="1"/>
     <col min="5141" max="5376" width="9" style="28"/>
     <col min="5377" max="5377" width="4" style="28" customWidth="1"/>
     <col min="5378" max="5378" width="5" style="28" customWidth="1"/>
-    <col min="5379" max="5379" width="5.375" style="28" customWidth="1"/>
-    <col min="5380" max="5388" width="4.375" style="28" customWidth="1"/>
-    <col min="5389" max="5389" width="5.125" style="28" customWidth="1"/>
-    <col min="5390" max="5390" width="4.125" style="28" customWidth="1"/>
+    <col min="5379" max="5379" width="5.42578125" style="28" customWidth="1"/>
+    <col min="5380" max="5388" width="4.42578125" style="28" customWidth="1"/>
+    <col min="5389" max="5389" width="5.140625" style="28" customWidth="1"/>
+    <col min="5390" max="5390" width="4.140625" style="28" customWidth="1"/>
     <col min="5391" max="5391" width="6" style="28" customWidth="1"/>
-    <col min="5392" max="5394" width="4.625" style="28" customWidth="1"/>
+    <col min="5392" max="5394" width="4.5703125" style="28" customWidth="1"/>
     <col min="5395" max="5395" width="6" style="28" customWidth="1"/>
-    <col min="5396" max="5396" width="11.875" style="28" customWidth="1"/>
+    <col min="5396" max="5396" width="11.85546875" style="28" customWidth="1"/>
     <col min="5397" max="5632" width="9" style="28"/>
     <col min="5633" max="5633" width="4" style="28" customWidth="1"/>
     <col min="5634" max="5634" width="5" style="28" customWidth="1"/>
-    <col min="5635" max="5635" width="5.375" style="28" customWidth="1"/>
-    <col min="5636" max="5644" width="4.375" style="28" customWidth="1"/>
-    <col min="5645" max="5645" width="5.125" style="28" customWidth="1"/>
-    <col min="5646" max="5646" width="4.125" style="28" customWidth="1"/>
+    <col min="5635" max="5635" width="5.42578125" style="28" customWidth="1"/>
+    <col min="5636" max="5644" width="4.42578125" style="28" customWidth="1"/>
+    <col min="5645" max="5645" width="5.140625" style="28" customWidth="1"/>
+    <col min="5646" max="5646" width="4.140625" style="28" customWidth="1"/>
     <col min="5647" max="5647" width="6" style="28" customWidth="1"/>
-    <col min="5648" max="5650" width="4.625" style="28" customWidth="1"/>
+    <col min="5648" max="5650" width="4.5703125" style="28" customWidth="1"/>
     <col min="5651" max="5651" width="6" style="28" customWidth="1"/>
-    <col min="5652" max="5652" width="11.875" style="28" customWidth="1"/>
+    <col min="5652" max="5652" width="11.85546875" style="28" customWidth="1"/>
     <col min="5653" max="5888" width="9" style="28"/>
     <col min="5889" max="5889" width="4" style="28" customWidth="1"/>
     <col min="5890" max="5890" width="5" style="28" customWidth="1"/>
-    <col min="5891" max="5891" width="5.375" style="28" customWidth="1"/>
-    <col min="5892" max="5900" width="4.375" style="28" customWidth="1"/>
-    <col min="5901" max="5901" width="5.125" style="28" customWidth="1"/>
-    <col min="5902" max="5902" width="4.125" style="28" customWidth="1"/>
+    <col min="5891" max="5891" width="5.42578125" style="28" customWidth="1"/>
+    <col min="5892" max="5900" width="4.42578125" style="28" customWidth="1"/>
+    <col min="5901" max="5901" width="5.140625" style="28" customWidth="1"/>
+    <col min="5902" max="5902" width="4.140625" style="28" customWidth="1"/>
     <col min="5903" max="5903" width="6" style="28" customWidth="1"/>
-    <col min="5904" max="5906" width="4.625" style="28" customWidth="1"/>
+    <col min="5904" max="5906" width="4.5703125" style="28" customWidth="1"/>
     <col min="5907" max="5907" width="6" style="28" customWidth="1"/>
-    <col min="5908" max="5908" width="11.875" style="28" customWidth="1"/>
+    <col min="5908" max="5908" width="11.85546875" style="28" customWidth="1"/>
     <col min="5909" max="6144" width="9" style="28"/>
     <col min="6145" max="6145" width="4" style="28" customWidth="1"/>
     <col min="6146" max="6146" width="5" style="28" customWidth="1"/>
-    <col min="6147" max="6147" width="5.375" style="28" customWidth="1"/>
-    <col min="6148" max="6156" width="4.375" style="28" customWidth="1"/>
-    <col min="6157" max="6157" width="5.125" style="28" customWidth="1"/>
-    <col min="6158" max="6158" width="4.125" style="28" customWidth="1"/>
+    <col min="6147" max="6147" width="5.42578125" style="28" customWidth="1"/>
+    <col min="6148" max="6156" width="4.42578125" style="28" customWidth="1"/>
+    <col min="6157" max="6157" width="5.140625" style="28" customWidth="1"/>
+    <col min="6158" max="6158" width="4.140625" style="28" customWidth="1"/>
     <col min="6159" max="6159" width="6" style="28" customWidth="1"/>
-    <col min="6160" max="6162" width="4.625" style="28" customWidth="1"/>
+    <col min="6160" max="6162" width="4.5703125" style="28" customWidth="1"/>
     <col min="6163" max="6163" width="6" style="28" customWidth="1"/>
-    <col min="6164" max="6164" width="11.875" style="28" customWidth="1"/>
+    <col min="6164" max="6164" width="11.85546875" style="28" customWidth="1"/>
     <col min="6165" max="6400" width="9" style="28"/>
     <col min="6401" max="6401" width="4" style="28" customWidth="1"/>
     <col min="6402" max="6402" width="5" style="28" customWidth="1"/>
-    <col min="6403" max="6403" width="5.375" style="28" customWidth="1"/>
-    <col min="6404" max="6412" width="4.375" style="28" customWidth="1"/>
-    <col min="6413" max="6413" width="5.125" style="28" customWidth="1"/>
-    <col min="6414" max="6414" width="4.125" style="28" customWidth="1"/>
+    <col min="6403" max="6403" width="5.42578125" style="28" customWidth="1"/>
+    <col min="6404" max="6412" width="4.42578125" style="28" customWidth="1"/>
+    <col min="6413" max="6413" width="5.140625" style="28" customWidth="1"/>
+    <col min="6414" max="6414" width="4.140625" style="28" customWidth="1"/>
     <col min="6415" max="6415" width="6" style="28" customWidth="1"/>
-    <col min="6416" max="6418" width="4.625" style="28" customWidth="1"/>
+    <col min="6416" max="6418" width="4.5703125" style="28" customWidth="1"/>
     <col min="6419" max="6419" width="6" style="28" customWidth="1"/>
-    <col min="6420" max="6420" width="11.875" style="28" customWidth="1"/>
+    <col min="6420" max="6420" width="11.85546875" style="28" customWidth="1"/>
     <col min="6421" max="6656" width="9" style="28"/>
     <col min="6657" max="6657" width="4" style="28" customWidth="1"/>
     <col min="6658" max="6658" width="5" style="28" customWidth="1"/>
-    <col min="6659" max="6659" width="5.375" style="28" customWidth="1"/>
-    <col min="6660" max="6668" width="4.375" style="28" customWidth="1"/>
-    <col min="6669" max="6669" width="5.125" style="28" customWidth="1"/>
-    <col min="6670" max="6670" width="4.125" style="28" customWidth="1"/>
+    <col min="6659" max="6659" width="5.42578125" style="28" customWidth="1"/>
+    <col min="6660" max="6668" width="4.42578125" style="28" customWidth="1"/>
+    <col min="6669" max="6669" width="5.140625" style="28" customWidth="1"/>
+    <col min="6670" max="6670" width="4.140625" style="28" customWidth="1"/>
     <col min="6671" max="6671" width="6" style="28" customWidth="1"/>
-    <col min="6672" max="6674" width="4.625" style="28" customWidth="1"/>
+    <col min="6672" max="6674" width="4.5703125" style="28" customWidth="1"/>
     <col min="6675" max="6675" width="6" style="28" customWidth="1"/>
-    <col min="6676" max="6676" width="11.875" style="28" customWidth="1"/>
+    <col min="6676" max="6676" width="11.85546875" style="28" customWidth="1"/>
     <col min="6677" max="6912" width="9" style="28"/>
     <col min="6913" max="6913" width="4" style="28" customWidth="1"/>
     <col min="6914" max="6914" width="5" style="28" customWidth="1"/>
-    <col min="6915" max="6915" width="5.375" style="28" customWidth="1"/>
-    <col min="6916" max="6924" width="4.375" style="28" customWidth="1"/>
-    <col min="6925" max="6925" width="5.125" style="28" customWidth="1"/>
-    <col min="6926" max="6926" width="4.125" style="28" customWidth="1"/>
+    <col min="6915" max="6915" width="5.42578125" style="28" customWidth="1"/>
+    <col min="6916" max="6924" width="4.42578125" style="28" customWidth="1"/>
+    <col min="6925" max="6925" width="5.140625" style="28" customWidth="1"/>
+    <col min="6926" max="6926" width="4.140625" style="28" customWidth="1"/>
     <col min="6927" max="6927" width="6" style="28" customWidth="1"/>
-    <col min="6928" max="6930" width="4.625" style="28" customWidth="1"/>
+    <col min="6928" max="6930" width="4.5703125" style="28" customWidth="1"/>
     <col min="6931" max="6931" width="6" style="28" customWidth="1"/>
-    <col min="6932" max="6932" width="11.875" style="28" customWidth="1"/>
+    <col min="6932" max="6932" width="11.85546875" style="28" customWidth="1"/>
     <col min="6933" max="7168" width="9" style="28"/>
     <col min="7169" max="7169" width="4" style="28" customWidth="1"/>
     <col min="7170" max="7170" width="5" style="28" customWidth="1"/>
-    <col min="7171" max="7171" width="5.375" style="28" customWidth="1"/>
-    <col min="7172" max="7180" width="4.375" style="28" customWidth="1"/>
-    <col min="7181" max="7181" width="5.125" style="28" customWidth="1"/>
-    <col min="7182" max="7182" width="4.125" style="28" customWidth="1"/>
+    <col min="7171" max="7171" width="5.42578125" style="28" customWidth="1"/>
+    <col min="7172" max="7180" width="4.42578125" style="28" customWidth="1"/>
+    <col min="7181" max="7181" width="5.140625" style="28" customWidth="1"/>
+    <col min="7182" max="7182" width="4.140625" style="28" customWidth="1"/>
     <col min="7183" max="7183" width="6" style="28" customWidth="1"/>
-    <col min="7184" max="7186" width="4.625" style="28" customWidth="1"/>
+    <col min="7184" max="7186" width="4.5703125" style="28" customWidth="1"/>
     <col min="7187" max="7187" width="6" style="28" customWidth="1"/>
-    <col min="7188" max="7188" width="11.875" style="28" customWidth="1"/>
+    <col min="7188" max="7188" width="11.85546875" style="28" customWidth="1"/>
     <col min="7189" max="7424" width="9" style="28"/>
     <col min="7425" max="7425" width="4" style="28" customWidth="1"/>
     <col min="7426" max="7426" width="5" style="28" customWidth="1"/>
-    <col min="7427" max="7427" width="5.375" style="28" customWidth="1"/>
-    <col min="7428" max="7436" width="4.375" style="28" customWidth="1"/>
-    <col min="7437" max="7437" width="5.125" style="28" customWidth="1"/>
-    <col min="7438" max="7438" width="4.125" style="28" customWidth="1"/>
+    <col min="7427" max="7427" width="5.42578125" style="28" customWidth="1"/>
+    <col min="7428" max="7436" width="4.42578125" style="28" customWidth="1"/>
+    <col min="7437" max="7437" width="5.140625" style="28" customWidth="1"/>
+    <col min="7438" max="7438" width="4.140625" style="28" customWidth="1"/>
     <col min="7439" max="7439" width="6" style="28" customWidth="1"/>
-    <col min="7440" max="7442" width="4.625" style="28" customWidth="1"/>
+    <col min="7440" max="7442" width="4.5703125" style="28" customWidth="1"/>
     <col min="7443" max="7443" width="6" style="28" customWidth="1"/>
-    <col min="7444" max="7444" width="11.875" style="28" customWidth="1"/>
+    <col min="7444" max="7444" width="11.85546875" style="28" customWidth="1"/>
     <col min="7445" max="7680" width="9" style="28"/>
     <col min="7681" max="7681" width="4" style="28" customWidth="1"/>
     <col min="7682" max="7682" width="5" style="28" customWidth="1"/>
-    <col min="7683" max="7683" width="5.375" style="28" customWidth="1"/>
-    <col min="7684" max="7692" width="4.375" style="28" customWidth="1"/>
-    <col min="7693" max="7693" width="5.125" style="28" customWidth="1"/>
-    <col min="7694" max="7694" width="4.125" style="28" customWidth="1"/>
+    <col min="7683" max="7683" width="5.42578125" style="28" customWidth="1"/>
+    <col min="7684" max="7692" width="4.42578125" style="28" customWidth="1"/>
+    <col min="7693" max="7693" width="5.140625" style="28" customWidth="1"/>
+    <col min="7694" max="7694" width="4.140625" style="28" customWidth="1"/>
     <col min="7695" max="7695" width="6" style="28" customWidth="1"/>
-    <col min="7696" max="7698" width="4.625" style="28" customWidth="1"/>
+    <col min="7696" max="7698" width="4.5703125" style="28" customWidth="1"/>
     <col min="7699" max="7699" width="6" style="28" customWidth="1"/>
-    <col min="7700" max="7700" width="11.875" style="28" customWidth="1"/>
+    <col min="7700" max="7700" width="11.85546875" style="28" customWidth="1"/>
     <col min="7701" max="7936" width="9" style="28"/>
     <col min="7937" max="7937" width="4" style="28" customWidth="1"/>
     <col min="7938" max="7938" width="5" style="28" customWidth="1"/>
-    <col min="7939" max="7939" width="5.375" style="28" customWidth="1"/>
-    <col min="7940" max="7948" width="4.375" style="28" customWidth="1"/>
-    <col min="7949" max="7949" width="5.125" style="28" customWidth="1"/>
-    <col min="7950" max="7950" width="4.125" style="28" customWidth="1"/>
+    <col min="7939" max="7939" width="5.42578125" style="28" customWidth="1"/>
+    <col min="7940" max="7948" width="4.42578125" style="28" customWidth="1"/>
+    <col min="7949" max="7949" width="5.140625" style="28" customWidth="1"/>
+    <col min="7950" max="7950" width="4.140625" style="28" customWidth="1"/>
     <col min="7951" max="7951" width="6" style="28" customWidth="1"/>
-    <col min="7952" max="7954" width="4.625" style="28" customWidth="1"/>
+    <col min="7952" max="7954" width="4.5703125" style="28" customWidth="1"/>
     <col min="7955" max="7955" width="6" style="28" customWidth="1"/>
-    <col min="7956" max="7956" width="11.875" style="28" customWidth="1"/>
+    <col min="7956" max="7956" width="11.85546875" style="28" customWidth="1"/>
     <col min="7957" max="8192" width="9" style="28"/>
     <col min="8193" max="8193" width="4" style="28" customWidth="1"/>
     <col min="8194" max="8194" width="5" style="28" customWidth="1"/>
-    <col min="8195" max="8195" width="5.375" style="28" customWidth="1"/>
-    <col min="8196" max="8204" width="4.375" style="28" customWidth="1"/>
-    <col min="8205" max="8205" width="5.125" style="28" customWidth="1"/>
-    <col min="8206" max="8206" width="4.125" style="28" customWidth="1"/>
+    <col min="8195" max="8195" width="5.42578125" style="28" customWidth="1"/>
+    <col min="8196" max="8204" width="4.42578125" style="28" customWidth="1"/>
+    <col min="8205" max="8205" width="5.140625" style="28" customWidth="1"/>
+    <col min="8206" max="8206" width="4.140625" style="28" customWidth="1"/>
     <col min="8207" max="8207" width="6" style="28" customWidth="1"/>
-    <col min="8208" max="8210" width="4.625" style="28" customWidth="1"/>
+    <col min="8208" max="8210" width="4.5703125" style="28" customWidth="1"/>
     <col min="8211" max="8211" width="6" style="28" customWidth="1"/>
-    <col min="8212" max="8212" width="11.875" style="28" customWidth="1"/>
+    <col min="8212" max="8212" width="11.85546875" style="28" customWidth="1"/>
     <col min="8213" max="8448" width="9" style="28"/>
     <col min="8449" max="8449" width="4" style="28" customWidth="1"/>
     <col min="8450" max="8450" width="5" style="28" customWidth="1"/>
-    <col min="8451" max="8451" width="5.375" style="28" customWidth="1"/>
-    <col min="8452" max="8460" width="4.375" style="28" customWidth="1"/>
-    <col min="8461" max="8461" width="5.125" style="28" customWidth="1"/>
-    <col min="8462" max="8462" width="4.125" style="28" customWidth="1"/>
+    <col min="8451" max="8451" width="5.42578125" style="28" customWidth="1"/>
+    <col min="8452" max="8460" width="4.42578125" style="28" customWidth="1"/>
+    <col min="8461" max="8461" width="5.140625" style="28" customWidth="1"/>
+    <col min="8462" max="8462" width="4.140625" style="28" customWidth="1"/>
     <col min="8463" max="8463" width="6" style="28" customWidth="1"/>
-    <col min="8464" max="8466" width="4.625" style="28" customWidth="1"/>
+    <col min="8464" max="8466" width="4.5703125" style="28" customWidth="1"/>
     <col min="8467" max="8467" width="6" style="28" customWidth="1"/>
-    <col min="8468" max="8468" width="11.875" style="28" customWidth="1"/>
+    <col min="8468" max="8468" width="11.85546875" style="28" customWidth="1"/>
     <col min="8469" max="8704" width="9" style="28"/>
     <col min="8705" max="8705" width="4" style="28" customWidth="1"/>
     <col min="8706" max="8706" width="5" style="28" customWidth="1"/>
-    <col min="8707" max="8707" width="5.375" style="28" customWidth="1"/>
-    <col min="8708" max="8716" width="4.375" style="28" customWidth="1"/>
-    <col min="8717" max="8717" width="5.125" style="28" customWidth="1"/>
-    <col min="8718" max="8718" width="4.125" style="28" customWidth="1"/>
+    <col min="8707" max="8707" width="5.42578125" style="28" customWidth="1"/>
+    <col min="8708" max="8716" width="4.42578125" style="28" customWidth="1"/>
+    <col min="8717" max="8717" width="5.140625" style="28" customWidth="1"/>
+    <col min="8718" max="8718" width="4.140625" style="28" customWidth="1"/>
     <col min="8719" max="8719" width="6" style="28" customWidth="1"/>
-    <col min="8720" max="8722" width="4.625" style="28" customWidth="1"/>
+    <col min="8720" max="8722" width="4.5703125" style="28" customWidth="1"/>
     <col min="8723" max="8723" width="6" style="28" customWidth="1"/>
-    <col min="8724" max="8724" width="11.875" style="28" customWidth="1"/>
+    <col min="8724" max="8724" width="11.85546875" style="28" customWidth="1"/>
     <col min="8725" max="8960" width="9" style="28"/>
     <col min="8961" max="8961" width="4" style="28" customWidth="1"/>
     <col min="8962" max="8962" width="5" style="28" customWidth="1"/>
-    <col min="8963" max="8963" width="5.375" style="28" customWidth="1"/>
-    <col min="8964" max="8972" width="4.375" style="28" customWidth="1"/>
-    <col min="8973" max="8973" width="5.125" style="28" customWidth="1"/>
-    <col min="8974" max="8974" width="4.125" style="28" customWidth="1"/>
+    <col min="8963" max="8963" width="5.42578125" style="28" customWidth="1"/>
+    <col min="8964" max="8972" width="4.42578125" style="28" customWidth="1"/>
+    <col min="8973" max="8973" width="5.140625" style="28" customWidth="1"/>
+    <col min="8974" max="8974" width="4.140625" style="28" customWidth="1"/>
     <col min="8975" max="8975" width="6" style="28" customWidth="1"/>
-    <col min="8976" max="8978" width="4.625" style="28" customWidth="1"/>
+    <col min="8976" max="8978" width="4.5703125" style="28" customWidth="1"/>
     <col min="8979" max="8979" width="6" style="28" customWidth="1"/>
-    <col min="8980" max="8980" width="11.875" style="28" customWidth="1"/>
+    <col min="8980" max="8980" width="11.85546875" style="28" customWidth="1"/>
     <col min="8981" max="9216" width="9" style="28"/>
     <col min="9217" max="9217" width="4" style="28" customWidth="1"/>
     <col min="9218" max="9218" width="5" style="28" customWidth="1"/>
-    <col min="9219" max="9219" width="5.375" style="28" customWidth="1"/>
-    <col min="9220" max="9228" width="4.375" style="28" customWidth="1"/>
-    <col min="9229" max="9229" width="5.125" style="28" customWidth="1"/>
-    <col min="9230" max="9230" width="4.125" style="28" customWidth="1"/>
+    <col min="9219" max="9219" width="5.42578125" style="28" customWidth="1"/>
+    <col min="9220" max="9228" width="4.42578125" style="28" customWidth="1"/>
+    <col min="9229" max="9229" width="5.140625" style="28" customWidth="1"/>
+    <col min="9230" max="9230" width="4.140625" style="28" customWidth="1"/>
     <col min="9231" max="9231" width="6" style="28" customWidth="1"/>
-    <col min="9232" max="9234" width="4.625" style="28" customWidth="1"/>
+    <col min="9232" max="9234" width="4.5703125" style="28" customWidth="1"/>
     <col min="9235" max="9235" width="6" style="28" customWidth="1"/>
-    <col min="9236" max="9236" width="11.875" style="28" customWidth="1"/>
+    <col min="9236" max="9236" width="11.85546875" style="28" customWidth="1"/>
     <col min="9237" max="9472" width="9" style="28"/>
     <col min="9473" max="9473" width="4" style="28" customWidth="1"/>
     <col min="9474" max="9474" width="5" style="28" customWidth="1"/>
-    <col min="9475" max="9475" width="5.375" style="28" customWidth="1"/>
-    <col min="9476" max="9484" width="4.375" style="28" customWidth="1"/>
-    <col min="9485" max="9485" width="5.125" style="28" customWidth="1"/>
-    <col min="9486" max="9486" width="4.125" style="28" customWidth="1"/>
+    <col min="9475" max="9475" width="5.42578125" style="28" customWidth="1"/>
+    <col min="9476" max="9484" width="4.42578125" style="28" customWidth="1"/>
+    <col min="9485" max="9485" width="5.140625" style="28" customWidth="1"/>
+    <col min="9486" max="9486" width="4.140625" style="28" customWidth="1"/>
     <col min="9487" max="9487" width="6" style="28" customWidth="1"/>
-    <col min="9488" max="9490" width="4.625" style="28" customWidth="1"/>
+    <col min="9488" max="9490" width="4.5703125" style="28" customWidth="1"/>
     <col min="9491" max="9491" width="6" style="28" customWidth="1"/>
-    <col min="9492" max="9492" width="11.875" style="28" customWidth="1"/>
+    <col min="9492" max="9492" width="11.85546875" style="28" customWidth="1"/>
     <col min="9493" max="9728" width="9" style="28"/>
     <col min="9729" max="9729" width="4" style="28" customWidth="1"/>
     <col min="9730" max="9730" width="5" style="28" customWidth="1"/>
-    <col min="9731" max="9731" width="5.375" style="28" customWidth="1"/>
-    <col min="9732" max="9740" width="4.375" style="28" customWidth="1"/>
-    <col min="9741" max="9741" width="5.125" style="28" customWidth="1"/>
-    <col min="9742" max="9742" width="4.125" style="28" customWidth="1"/>
+    <col min="9731" max="9731" width="5.42578125" style="28" customWidth="1"/>
+    <col min="9732" max="9740" width="4.42578125" style="28" customWidth="1"/>
+    <col min="9741" max="9741" width="5.140625" style="28" customWidth="1"/>
+    <col min="9742" max="9742" width="4.140625" style="28" customWidth="1"/>
     <col min="9743" max="9743" width="6" style="28" customWidth="1"/>
-    <col min="9744" max="9746" width="4.625" style="28" customWidth="1"/>
+    <col min="9744" max="9746" width="4.5703125" style="28" customWidth="1"/>
     <col min="9747" max="9747" width="6" style="28" customWidth="1"/>
-    <col min="9748" max="9748" width="11.875" style="28" customWidth="1"/>
+    <col min="9748" max="9748" width="11.85546875" style="28" customWidth="1"/>
     <col min="9749" max="9984" width="9" style="28"/>
     <col min="9985" max="9985" width="4" style="28" customWidth="1"/>
     <col min="9986" max="9986" width="5" style="28" customWidth="1"/>
-    <col min="9987" max="9987" width="5.375" style="28" customWidth="1"/>
-    <col min="9988" max="9996" width="4.375" style="28" customWidth="1"/>
-    <col min="9997" max="9997" width="5.125" style="28" customWidth="1"/>
-    <col min="9998" max="9998" width="4.125" style="28" customWidth="1"/>
+    <col min="9987" max="9987" width="5.42578125" style="28" customWidth="1"/>
+    <col min="9988" max="9996" width="4.42578125" style="28" customWidth="1"/>
+    <col min="9997" max="9997" width="5.140625" style="28" customWidth="1"/>
+    <col min="9998" max="9998" width="4.140625" style="28" customWidth="1"/>
     <col min="9999" max="9999" width="6" style="28" customWidth="1"/>
-    <col min="10000" max="10002" width="4.625" style="28" customWidth="1"/>
+    <col min="10000" max="10002" width="4.5703125" style="28" customWidth="1"/>
     <col min="10003" max="10003" width="6" style="28" customWidth="1"/>
-    <col min="10004" max="10004" width="11.875" style="28" customWidth="1"/>
+    <col min="10004" max="10004" width="11.85546875" style="28" customWidth="1"/>
     <col min="10005" max="10240" width="9" style="28"/>
     <col min="10241" max="10241" width="4" style="28" customWidth="1"/>
     <col min="10242" max="10242" width="5" style="28" customWidth="1"/>
-    <col min="10243" max="10243" width="5.375" style="28" customWidth="1"/>
-    <col min="10244" max="10252" width="4.375" style="28" customWidth="1"/>
-    <col min="10253" max="10253" width="5.125" style="28" customWidth="1"/>
-    <col min="10254" max="10254" width="4.125" style="28" customWidth="1"/>
+    <col min="10243" max="10243" width="5.42578125" style="28" customWidth="1"/>
+    <col min="10244" max="10252" width="4.42578125" style="28" customWidth="1"/>
+    <col min="10253" max="10253" width="5.140625" style="28" customWidth="1"/>
+    <col min="10254" max="10254" width="4.140625" style="28" customWidth="1"/>
     <col min="10255" max="10255" width="6" style="28" customWidth="1"/>
-    <col min="10256" max="10258" width="4.625" style="28" customWidth="1"/>
+    <col min="10256" max="10258" width="4.5703125" style="28" customWidth="1"/>
     <col min="10259" max="10259" width="6" style="28" customWidth="1"/>
-    <col min="10260" max="10260" width="11.875" style="28" customWidth="1"/>
+    <col min="10260" max="10260" width="11.85546875" style="28" customWidth="1"/>
     <col min="10261" max="10496" width="9" style="28"/>
     <col min="10497" max="10497" width="4" style="28" customWidth="1"/>
     <col min="10498" max="10498" width="5" style="28" customWidth="1"/>
-    <col min="10499" max="10499" width="5.375" style="28" customWidth="1"/>
-    <col min="10500" max="10508" width="4.375" style="28" customWidth="1"/>
-    <col min="10509" max="10509" width="5.125" style="28" customWidth="1"/>
-    <col min="10510" max="10510" width="4.125" style="28" customWidth="1"/>
+    <col min="10499" max="10499" width="5.42578125" style="28" customWidth="1"/>
+    <col min="10500" max="10508" width="4.42578125" style="28" customWidth="1"/>
+    <col min="10509" max="10509" width="5.140625" style="28" customWidth="1"/>
+    <col min="10510" max="10510" width="4.140625" style="28" customWidth="1"/>
     <col min="10511" max="10511" width="6" style="28" customWidth="1"/>
-    <col min="10512" max="10514" width="4.625" style="28" customWidth="1"/>
+    <col min="10512" max="10514" width="4.5703125" style="28" customWidth="1"/>
     <col min="10515" max="10515" width="6" style="28" customWidth="1"/>
-    <col min="10516" max="10516" width="11.875" style="28" customWidth="1"/>
+    <col min="10516" max="10516" width="11.85546875" style="28" customWidth="1"/>
     <col min="10517" max="10752" width="9" style="28"/>
     <col min="10753" max="10753" width="4" style="28" customWidth="1"/>
     <col min="10754" max="10754" width="5" style="28" customWidth="1"/>
-    <col min="10755" max="10755" width="5.375" style="28" customWidth="1"/>
-    <col min="10756" max="10764" width="4.375" style="28" customWidth="1"/>
-    <col min="10765" max="10765" width="5.125" style="28" customWidth="1"/>
-    <col min="10766" max="10766" width="4.125" style="28" customWidth="1"/>
+    <col min="10755" max="10755" width="5.42578125" style="28" customWidth="1"/>
+    <col min="10756" max="10764" width="4.42578125" style="28" customWidth="1"/>
+    <col min="10765" max="10765" width="5.140625" style="28" customWidth="1"/>
+    <col min="10766" max="10766" width="4.140625" style="28" customWidth="1"/>
     <col min="10767" max="10767" width="6" style="28" customWidth="1"/>
-    <col min="10768" max="10770" width="4.625" style="28" customWidth="1"/>
+    <col min="10768" max="10770" width="4.5703125" style="28" customWidth="1"/>
     <col min="10771" max="10771" width="6" style="28" customWidth="1"/>
-    <col min="10772" max="10772" width="11.875" style="28" customWidth="1"/>
+    <col min="10772" max="10772" width="11.85546875" style="28" customWidth="1"/>
     <col min="10773" max="11008" width="9" style="28"/>
     <col min="11009" max="11009" width="4" style="28" customWidth="1"/>
     <col min="11010" max="11010" width="5" style="28" customWidth="1"/>
-    <col min="11011" max="11011" width="5.375" style="28" customWidth="1"/>
-    <col min="11012" max="11020" width="4.375" style="28" customWidth="1"/>
-    <col min="11021" max="11021" width="5.125" style="28" customWidth="1"/>
-    <col min="11022" max="11022" width="4.125" style="28" customWidth="1"/>
+    <col min="11011" max="11011" width="5.42578125" style="28" customWidth="1"/>
+    <col min="11012" max="11020" width="4.42578125" style="28" customWidth="1"/>
+    <col min="11021" max="11021" width="5.140625" style="28" customWidth="1"/>
+    <col min="11022" max="11022" width="4.140625" style="28" customWidth="1"/>
     <col min="11023" max="11023" width="6" style="28" customWidth="1"/>
-    <col min="11024" max="11026" width="4.625" style="28" customWidth="1"/>
+    <col min="11024" max="11026" width="4.5703125" style="28" customWidth="1"/>
     <col min="11027" max="11027" width="6" style="28" customWidth="1"/>
-    <col min="11028" max="11028" width="11.875" style="28" customWidth="1"/>
+    <col min="11028" max="11028" width="11.85546875" style="28" customWidth="1"/>
     <col min="11029" max="11264" width="9" style="28"/>
     <col min="11265" max="11265" width="4" style="28" customWidth="1"/>
     <col min="11266" max="11266" width="5" style="28" customWidth="1"/>
-    <col min="11267" max="11267" width="5.375" style="28" customWidth="1"/>
-    <col min="11268" max="11276" width="4.375" style="28" customWidth="1"/>
-    <col min="11277" max="11277" width="5.125" style="28" customWidth="1"/>
-    <col min="11278" max="11278" width="4.125" style="28" customWidth="1"/>
+    <col min="11267" max="11267" width="5.42578125" style="28" customWidth="1"/>
+    <col min="11268" max="11276" width="4.42578125" style="28" customWidth="1"/>
+    <col min="11277" max="11277" width="5.140625" style="28" customWidth="1"/>
+    <col min="11278" max="11278" width="4.140625" style="28" customWidth="1"/>
     <col min="11279" max="11279" width="6" style="28" customWidth="1"/>
-    <col min="11280" max="11282" width="4.625" style="28" customWidth="1"/>
+    <col min="11280" max="11282" width="4.5703125" style="28" customWidth="1"/>
     <col min="11283" max="11283" width="6" style="28" customWidth="1"/>
-    <col min="11284" max="11284" width="11.875" style="28" customWidth="1"/>
+    <col min="11284" max="11284" width="11.85546875" style="28" customWidth="1"/>
     <col min="11285" max="11520" width="9" style="28"/>
     <col min="11521" max="11521" width="4" style="28" customWidth="1"/>
     <col min="11522" max="11522" width="5" style="28" customWidth="1"/>
-    <col min="11523" max="11523" width="5.375" style="28" customWidth="1"/>
-    <col min="11524" max="11532" width="4.375" style="28" customWidth="1"/>
-    <col min="11533" max="11533" width="5.125" style="28" customWidth="1"/>
-    <col min="11534" max="11534" width="4.125" style="28" customWidth="1"/>
+    <col min="11523" max="11523" width="5.42578125" style="28" customWidth="1"/>
+    <col min="11524" max="11532" width="4.42578125" style="28" customWidth="1"/>
+    <col min="11533" max="11533" width="5.140625" style="28" customWidth="1"/>
+    <col min="11534" max="11534" width="4.140625" style="28" customWidth="1"/>
     <col min="11535" max="11535" width="6" style="28" customWidth="1"/>
-    <col min="11536" max="11538" width="4.625" style="28" customWidth="1"/>
+    <col min="11536" max="11538" width="4.5703125" style="28" customWidth="1"/>
     <col min="11539" max="11539" width="6" style="28" customWidth="1"/>
-    <col min="11540" max="11540" width="11.875" style="28" customWidth="1"/>
+    <col min="11540" max="11540" width="11.85546875" style="28" customWidth="1"/>
     <col min="11541" max="11776" width="9" style="28"/>
     <col min="11777" max="11777" width="4" style="28" customWidth="1"/>
     <col min="11778" max="11778" width="5" style="28" customWidth="1"/>
-    <col min="11779" max="11779" width="5.375" style="28" customWidth="1"/>
-    <col min="11780" max="11788" width="4.375" style="28" customWidth="1"/>
-    <col min="11789" max="11789" width="5.125" style="28" customWidth="1"/>
-    <col min="11790" max="11790" width="4.125" style="28" customWidth="1"/>
+    <col min="11779" max="11779" width="5.42578125" style="28" customWidth="1"/>
+    <col min="11780" max="11788" width="4.42578125" style="28" customWidth="1"/>
+    <col min="11789" max="11789" width="5.140625" style="28" customWidth="1"/>
+    <col min="11790" max="11790" width="4.140625" style="28" customWidth="1"/>
     <col min="11791" max="11791" width="6" style="28" customWidth="1"/>
-    <col min="11792" max="11794" width="4.625" style="28" customWidth="1"/>
+    <col min="11792" max="11794" width="4.5703125" style="28" customWidth="1"/>
     <col min="11795" max="11795" width="6" style="28" customWidth="1"/>
-    <col min="11796" max="11796" width="11.875" style="28" customWidth="1"/>
+    <col min="11796" max="11796" width="11.85546875" style="28" customWidth="1"/>
     <col min="11797" max="12032" width="9" style="28"/>
     <col min="12033" max="12033" width="4" style="28" customWidth="1"/>
     <col min="12034" max="12034" width="5" style="28" customWidth="1"/>
-    <col min="12035" max="12035" width="5.375" style="28" customWidth="1"/>
-    <col min="12036" max="12044" width="4.375" style="28" customWidth="1"/>
-    <col min="12045" max="12045" width="5.125" style="28" customWidth="1"/>
-    <col min="12046" max="12046" width="4.125" style="28" customWidth="1"/>
+    <col min="12035" max="12035" width="5.42578125" style="28" customWidth="1"/>
+    <col min="12036" max="12044" width="4.42578125" style="28" customWidth="1"/>
+    <col min="12045" max="12045" width="5.140625" style="28" customWidth="1"/>
+    <col min="12046" max="12046" width="4.140625" style="28" customWidth="1"/>
     <col min="12047" max="12047" width="6" style="28" customWidth="1"/>
-    <col min="12048" max="12050" width="4.625" style="28" customWidth="1"/>
+    <col min="12048" max="12050" width="4.5703125" style="28" customWidth="1"/>
     <col min="12051" max="12051" width="6" style="28" customWidth="1"/>
-    <col min="12052" max="12052" width="11.875" style="28" customWidth="1"/>
+    <col min="12052" max="12052" width="11.85546875" style="28" customWidth="1"/>
     <col min="12053" max="12288" width="9" style="28"/>
     <col min="12289" max="12289" width="4" style="28" customWidth="1"/>
     <col min="12290" max="12290" width="5" style="28" customWidth="1"/>
-    <col min="12291" max="12291" width="5.375" style="28" customWidth="1"/>
-    <col min="12292" max="12300" width="4.375" style="28" customWidth="1"/>
-    <col min="12301" max="12301" width="5.125" style="28" customWidth="1"/>
-    <col min="12302" max="12302" width="4.125" style="28" customWidth="1"/>
+    <col min="12291" max="12291" width="5.42578125" style="28" customWidth="1"/>
+    <col min="12292" max="12300" width="4.42578125" style="28" customWidth="1"/>
+    <col min="12301" max="12301" width="5.140625" style="28" customWidth="1"/>
+    <col min="12302" max="12302" width="4.140625" style="28" customWidth="1"/>
     <col min="12303" max="12303" width="6" style="28" customWidth="1"/>
-    <col min="12304" max="12306" width="4.625" style="28" customWidth="1"/>
+    <col min="12304" max="12306" width="4.5703125" style="28" customWidth="1"/>
     <col min="12307" max="12307" width="6" style="28" customWidth="1"/>
-    <col min="12308" max="12308" width="11.875" style="28" customWidth="1"/>
+    <col min="12308" max="12308" width="11.85546875" style="28" customWidth="1"/>
     <col min="12309" max="12544" width="9" style="28"/>
     <col min="12545" max="12545" width="4" style="28" customWidth="1"/>
     <col min="12546" max="12546" width="5" style="28" customWidth="1"/>
-    <col min="12547" max="12547" width="5.375" style="28" customWidth="1"/>
-    <col min="12548" max="12556" width="4.375" style="28" customWidth="1"/>
-    <col min="12557" max="12557" width="5.125" style="28" customWidth="1"/>
-    <col min="12558" max="12558" width="4.125" style="28" customWidth="1"/>
+    <col min="12547" max="12547" width="5.42578125" style="28" customWidth="1"/>
+    <col min="12548" max="12556" width="4.42578125" style="28" customWidth="1"/>
+    <col min="12557" max="12557" width="5.140625" style="28" customWidth="1"/>
+    <col min="12558" max="12558" width="4.140625" style="28" customWidth="1"/>
     <col min="12559" max="12559" width="6" style="28" customWidth="1"/>
-    <col min="12560" max="12562" width="4.625" style="28" customWidth="1"/>
+    <col min="12560" max="12562" width="4.5703125" style="28" customWidth="1"/>
     <col min="12563" max="12563" width="6" style="28" customWidth="1"/>
-    <col min="12564" max="12564" width="11.875" style="28" customWidth="1"/>
+    <col min="12564" max="12564" width="11.85546875" style="28" customWidth="1"/>
     <col min="12565" max="12800" width="9" style="28"/>
     <col min="12801" max="12801" width="4" style="28" customWidth="1"/>
     <col min="12802" max="12802" width="5" style="28" customWidth="1"/>
-    <col min="12803" max="12803" width="5.375" style="28" customWidth="1"/>
-    <col min="12804" max="12812" width="4.375" style="28" customWidth="1"/>
-    <col min="12813" max="12813" width="5.125" style="28" customWidth="1"/>
-    <col min="12814" max="12814" width="4.125" style="28" customWidth="1"/>
+    <col min="12803" max="12803" width="5.42578125" style="28" customWidth="1"/>
+    <col min="12804" max="12812" width="4.42578125" style="28" customWidth="1"/>
+    <col min="12813" max="12813" width="5.140625" style="28" customWidth="1"/>
+    <col min="12814" max="12814" width="4.140625" style="28" customWidth="1"/>
     <col min="12815" max="12815" width="6" style="28" customWidth="1"/>
-    <col min="12816" max="12818" width="4.625" style="28" customWidth="1"/>
+    <col min="12816" max="12818" width="4.5703125" style="28" customWidth="1"/>
     <col min="12819" max="12819" width="6" style="28" customWidth="1"/>
-    <col min="12820" max="12820" width="11.875" style="28" customWidth="1"/>
+    <col min="12820" max="12820" width="11.85546875" style="28" customWidth="1"/>
     <col min="12821" max="13056" width="9" style="28"/>
     <col min="13057" max="13057" width="4" style="28" customWidth="1"/>
     <col min="13058" max="13058" width="5" style="28" customWidth="1"/>
-    <col min="13059" max="13059" width="5.375" style="28" customWidth="1"/>
-    <col min="13060" max="13068" width="4.375" style="28" customWidth="1"/>
-    <col min="13069" max="13069" width="5.125" style="28" customWidth="1"/>
-    <col min="13070" max="13070" width="4.125" style="28" customWidth="1"/>
+    <col min="13059" max="13059" width="5.42578125" style="28" customWidth="1"/>
+    <col min="13060" max="13068" width="4.42578125" style="28" customWidth="1"/>
+    <col min="13069" max="13069" width="5.140625" style="28" customWidth="1"/>
+    <col min="13070" max="13070" width="4.140625" style="28" customWidth="1"/>
     <col min="13071" max="13071" width="6" style="28" customWidth="1"/>
-    <col min="13072" max="13074" width="4.625" style="28" customWidth="1"/>
+    <col min="13072" max="13074" width="4.5703125" style="28" customWidth="1"/>
     <col min="13075" max="13075" width="6" style="28" customWidth="1"/>
-    <col min="13076" max="13076" width="11.875" style="28" customWidth="1"/>
+    <col min="13076" max="13076" width="11.85546875" style="28" customWidth="1"/>
     <col min="13077" max="13312" width="9" style="28"/>
     <col min="13313" max="13313" width="4" style="28" customWidth="1"/>
     <col min="13314" max="13314" width="5" style="28" customWidth="1"/>
-    <col min="13315" max="13315" width="5.375" style="28" customWidth="1"/>
-    <col min="13316" max="13324" width="4.375" style="28" customWidth="1"/>
-    <col min="13325" max="13325" width="5.125" style="28" customWidth="1"/>
-    <col min="13326" max="13326" width="4.125" style="28" customWidth="1"/>
+    <col min="13315" max="13315" width="5.42578125" style="28" customWidth="1"/>
+    <col min="13316" max="13324" width="4.42578125" style="28" customWidth="1"/>
+    <col min="13325" max="13325" width="5.140625" style="28" customWidth="1"/>
+    <col min="13326" max="13326" width="4.140625" style="28" customWidth="1"/>
     <col min="13327" max="13327" width="6" style="28" customWidth="1"/>
-    <col min="13328" max="13330" width="4.625" style="28" customWidth="1"/>
+    <col min="13328" max="13330" width="4.5703125" style="28" customWidth="1"/>
     <col min="13331" max="13331" width="6" style="28" customWidth="1"/>
-    <col min="13332" max="13332" width="11.875" style="28" customWidth="1"/>
+    <col min="13332" max="13332" width="11.85546875" style="28" customWidth="1"/>
     <col min="13333" max="13568" width="9" style="28"/>
     <col min="13569" max="13569" width="4" style="28" customWidth="1"/>
     <col min="13570" max="13570" width="5" style="28" customWidth="1"/>
-    <col min="13571" max="13571" width="5.375" style="28" customWidth="1"/>
-    <col min="13572" max="13580" width="4.375" style="28" customWidth="1"/>
-    <col min="13581" max="13581" width="5.125" style="28" customWidth="1"/>
-    <col min="13582" max="13582" width="4.125" style="28" customWidth="1"/>
+    <col min="13571" max="13571" width="5.42578125" style="28" customWidth="1"/>
+    <col min="13572" max="13580" width="4.42578125" style="28" customWidth="1"/>
+    <col min="13581" max="13581" width="5.140625" style="28" customWidth="1"/>
+    <col min="13582" max="13582" width="4.140625" style="28" customWidth="1"/>
     <col min="13583" max="13583" width="6" style="28" customWidth="1"/>
-    <col min="13584" max="13586" width="4.625" style="28" customWidth="1"/>
+    <col min="13584" max="13586" width="4.5703125" style="28" customWidth="1"/>
     <col min="13587" max="13587" width="6" style="28" customWidth="1"/>
-    <col min="13588" max="13588" width="11.875" style="28" customWidth="1"/>
+    <col min="13588" max="13588" width="11.85546875" style="28" customWidth="1"/>
     <col min="13589" max="13824" width="9" style="28"/>
     <col min="13825" max="13825" width="4" style="28" customWidth="1"/>
     <col min="13826" max="13826" width="5" style="28" customWidth="1"/>
-    <col min="13827" max="13827" width="5.375" style="28" customWidth="1"/>
-    <col min="13828" max="13836" width="4.375" style="28" customWidth="1"/>
-    <col min="13837" max="13837" width="5.125" style="28" customWidth="1"/>
-    <col min="13838" max="13838" width="4.125" style="28" customWidth="1"/>
+    <col min="13827" max="13827" width="5.42578125" style="28" customWidth="1"/>
+    <col min="13828" max="13836" width="4.42578125" style="28" customWidth="1"/>
+    <col min="13837" max="13837" width="5.140625" style="28" customWidth="1"/>
+    <col min="13838" max="13838" width="4.140625" style="28" customWidth="1"/>
     <col min="13839" max="13839" width="6" style="28" customWidth="1"/>
-    <col min="13840" max="13842" width="4.625" style="28" customWidth="1"/>
+    <col min="13840" max="13842" width="4.5703125" style="28" customWidth="1"/>
     <col min="13843" max="13843" width="6" style="28" customWidth="1"/>
-    <col min="13844" max="13844" width="11.875" style="28" customWidth="1"/>
+    <col min="13844" max="13844" width="11.85546875" style="28" customWidth="1"/>
     <col min="13845" max="14080" width="9" style="28"/>
     <col min="14081" max="14081" width="4" style="28" customWidth="1"/>
     <col min="14082" max="14082" width="5" style="28" customWidth="1"/>
-    <col min="14083" max="14083" width="5.375" style="28" customWidth="1"/>
-    <col min="14084" max="14092" width="4.375" style="28" customWidth="1"/>
-    <col min="14093" max="14093" width="5.125" style="28" customWidth="1"/>
-    <col min="14094" max="14094" width="4.125" style="28" customWidth="1"/>
+    <col min="14083" max="14083" width="5.42578125" style="28" customWidth="1"/>
+    <col min="14084" max="14092" width="4.42578125" style="28" customWidth="1"/>
+    <col min="14093" max="14093" width="5.140625" style="28" customWidth="1"/>
+    <col min="14094" max="14094" width="4.140625" style="28" customWidth="1"/>
     <col min="14095" max="14095" width="6" style="28" customWidth="1"/>
-    <col min="14096" max="14098" width="4.625" style="28" customWidth="1"/>
+    <col min="14096" max="14098" width="4.5703125" style="28" customWidth="1"/>
     <col min="14099" max="14099" width="6" style="28" customWidth="1"/>
-    <col min="14100" max="14100" width="11.875" style="28" customWidth="1"/>
+    <col min="14100" max="14100" width="11.85546875" style="28" customWidth="1"/>
     <col min="14101" max="14336" width="9" style="28"/>
     <col min="14337" max="14337" width="4" style="28" customWidth="1"/>
     <col min="14338" max="14338" width="5" style="28" customWidth="1"/>
-    <col min="14339" max="14339" width="5.375" style="28" customWidth="1"/>
-    <col min="14340" max="14348" width="4.375" style="28" customWidth="1"/>
-    <col min="14349" max="14349" width="5.125" style="28" customWidth="1"/>
-    <col min="14350" max="14350" width="4.125" style="28" customWidth="1"/>
+    <col min="14339" max="14339" width="5.42578125" style="28" customWidth="1"/>
+    <col min="14340" max="14348" width="4.42578125" style="28" customWidth="1"/>
+    <col min="14349" max="14349" width="5.140625" style="28" customWidth="1"/>
+    <col min="14350" max="14350" width="4.140625" style="28" customWidth="1"/>
     <col min="14351" max="14351" width="6" style="28" customWidth="1"/>
-    <col min="14352" max="14354" width="4.625" style="28" customWidth="1"/>
+    <col min="14352" max="14354" width="4.5703125" style="28" customWidth="1"/>
     <col min="14355" max="14355" width="6" style="28" customWidth="1"/>
-    <col min="14356" max="14356" width="11.875" style="28" customWidth="1"/>
+    <col min="14356" max="14356" width="11.85546875" style="28" customWidth="1"/>
     <col min="14357" max="14592" width="9" style="28"/>
     <col min="14593" max="14593" width="4" style="28" customWidth="1"/>
     <col min="14594" max="14594" width="5" style="28" customWidth="1"/>
-    <col min="14595" max="14595" width="5.375" style="28" customWidth="1"/>
-    <col min="14596" max="14604" width="4.375" style="28" customWidth="1"/>
-    <col min="14605" max="14605" width="5.125" style="28" customWidth="1"/>
-    <col min="14606" max="14606" width="4.125" style="28" customWidth="1"/>
+    <col min="14595" max="14595" width="5.42578125" style="28" customWidth="1"/>
+    <col min="14596" max="14604" width="4.42578125" style="28" customWidth="1"/>
+    <col min="14605" max="14605" width="5.140625" style="28" customWidth="1"/>
+    <col min="14606" max="14606" width="4.140625" style="28" customWidth="1"/>
     <col min="14607" max="14607" width="6" style="28" customWidth="1"/>
-    <col min="14608" max="14610" width="4.625" style="28" customWidth="1"/>
+    <col min="14608" max="14610" width="4.5703125" style="28" customWidth="1"/>
     <col min="14611" max="14611" width="6" style="28" customWidth="1"/>
-    <col min="14612" max="14612" width="11.875" style="28" customWidth="1"/>
+    <col min="14612" max="14612" width="11.85546875" style="28" customWidth="1"/>
     <col min="14613" max="14848" width="9" style="28"/>
     <col min="14849" max="14849" width="4" style="28" customWidth="1"/>
     <col min="14850" max="14850" width="5" style="28" customWidth="1"/>
-    <col min="14851" max="14851" width="5.375" style="28" customWidth="1"/>
-    <col min="14852" max="14860" width="4.375" style="28" customWidth="1"/>
-    <col min="14861" max="14861" width="5.125" style="28" customWidth="1"/>
-    <col min="14862" max="14862" width="4.125" style="28" customWidth="1"/>
+    <col min="14851" max="14851" width="5.42578125" style="28" customWidth="1"/>
+    <col min="14852" max="14860" width="4.42578125" style="28" customWidth="1"/>
+    <col min="14861" max="14861" width="5.140625" style="28" customWidth="1"/>
+    <col min="14862" max="14862" width="4.140625" style="28" customWidth="1"/>
     <col min="14863" max="14863" width="6" style="28" customWidth="1"/>
-    <col min="14864" max="14866" width="4.625" style="28" customWidth="1"/>
+    <col min="14864" max="14866" width="4.5703125" style="28" customWidth="1"/>
     <col min="14867" max="14867" width="6" style="28" customWidth="1"/>
-    <col min="14868" max="14868" width="11.875" style="28" customWidth="1"/>
+    <col min="14868" max="14868" width="11.85546875" style="28" customWidth="1"/>
     <col min="14869" max="15104" width="9" style="28"/>
     <col min="15105" max="15105" width="4" style="28" customWidth="1"/>
     <col min="15106" max="15106" width="5" style="28" customWidth="1"/>
-    <col min="15107" max="15107" width="5.375" style="28" customWidth="1"/>
-    <col min="15108" max="15116" width="4.375" style="28" customWidth="1"/>
-    <col min="15117" max="15117" width="5.125" style="28" customWidth="1"/>
-    <col min="15118" max="15118" width="4.125" style="28" customWidth="1"/>
+    <col min="15107" max="15107" width="5.42578125" style="28" customWidth="1"/>
+    <col min="15108" max="15116" width="4.42578125" style="28" customWidth="1"/>
+    <col min="15117" max="15117" width="5.140625" style="28" customWidth="1"/>
+    <col min="15118" max="15118" width="4.140625" style="28" customWidth="1"/>
     <col min="15119" max="15119" width="6" style="28" customWidth="1"/>
-    <col min="15120" max="15122" width="4.625" style="28" customWidth="1"/>
+    <col min="15120" max="15122" width="4.5703125" style="28" customWidth="1"/>
     <col min="15123" max="15123" width="6" style="28" customWidth="1"/>
-    <col min="15124" max="15124" width="11.875" style="28" customWidth="1"/>
+    <col min="15124" max="15124" width="11.85546875" style="28" customWidth="1"/>
     <col min="15125" max="15360" width="9" style="28"/>
     <col min="15361" max="15361" width="4" style="28" customWidth="1"/>
     <col min="15362" max="15362" width="5" style="28" customWidth="1"/>
-    <col min="15363" max="15363" width="5.375" style="28" customWidth="1"/>
-    <col min="15364" max="15372" width="4.375" style="28" customWidth="1"/>
-    <col min="15373" max="15373" width="5.125" style="28" customWidth="1"/>
-    <col min="15374" max="15374" width="4.125" style="28" customWidth="1"/>
+    <col min="15363" max="15363" width="5.42578125" style="28" customWidth="1"/>
+    <col min="15364" max="15372" width="4.42578125" style="28" customWidth="1"/>
+    <col min="15373" max="15373" width="5.140625" style="28" customWidth="1"/>
+    <col min="15374" max="15374" width="4.140625" style="28" customWidth="1"/>
     <col min="15375" max="15375" width="6" style="28" customWidth="1"/>
-    <col min="15376" max="15378" width="4.625" style="28" customWidth="1"/>
+    <col min="15376" max="15378" width="4.5703125" style="28" customWidth="1"/>
     <col min="15379" max="15379" width="6" style="28" customWidth="1"/>
-    <col min="15380" max="15380" width="11.875" style="28" customWidth="1"/>
+    <col min="15380" max="15380" width="11.85546875" style="28" customWidth="1"/>
     <col min="15381" max="15616" width="9" style="28"/>
     <col min="15617" max="15617" width="4" style="28" customWidth="1"/>
     <col min="15618" max="15618" width="5" style="28" customWidth="1"/>
-    <col min="15619" max="15619" width="5.375" style="28" customWidth="1"/>
-    <col min="15620" max="15628" width="4.375" style="28" customWidth="1"/>
-    <col min="15629" max="15629" width="5.125" style="28" customWidth="1"/>
-    <col min="15630" max="15630" width="4.125" style="28" customWidth="1"/>
+    <col min="15619" max="15619" width="5.42578125" style="28" customWidth="1"/>
+    <col min="15620" max="15628" width="4.42578125" style="28" customWidth="1"/>
+    <col min="15629" max="15629" width="5.140625" style="28" customWidth="1"/>
+    <col min="15630" max="15630" width="4.140625" style="28" customWidth="1"/>
     <col min="15631" max="15631" width="6" style="28" customWidth="1"/>
-    <col min="15632" max="15634" width="4.625" style="28" customWidth="1"/>
+    <col min="15632" max="15634" width="4.5703125" style="28" customWidth="1"/>
     <col min="15635" max="15635" width="6" style="28" customWidth="1"/>
-    <col min="15636" max="15636" width="11.875" style="28" customWidth="1"/>
+    <col min="15636" max="15636" width="11.85546875" style="28" customWidth="1"/>
     <col min="15637" max="15872" width="9" style="28"/>
     <col min="15873" max="15873" width="4" style="28" customWidth="1"/>
     <col min="15874" max="15874" width="5" style="28" customWidth="1"/>
-    <col min="15875" max="15875" width="5.375" style="28" customWidth="1"/>
-    <col min="15876" max="15884" width="4.375" style="28" customWidth="1"/>
-    <col min="15885" max="15885" width="5.125" style="28" customWidth="1"/>
-    <col min="15886" max="15886" width="4.125" style="28" customWidth="1"/>
+    <col min="15875" max="15875" width="5.42578125" style="28" customWidth="1"/>
+    <col min="15876" max="15884" width="4.42578125" style="28" customWidth="1"/>
+    <col min="15885" max="15885" width="5.140625" style="28" customWidth="1"/>
+    <col min="15886" max="15886" width="4.140625" style="28" customWidth="1"/>
     <col min="15887" max="15887" width="6" style="28" customWidth="1"/>
-    <col min="15888" max="15890" width="4.625" style="28" customWidth="1"/>
+    <col min="15888" max="15890" width="4.5703125" style="28" customWidth="1"/>
     <col min="15891" max="15891" width="6" style="28" customWidth="1"/>
-    <col min="15892" max="15892" width="11.875" style="28" customWidth="1"/>
+    <col min="15892" max="15892" width="11.85546875" style="28" customWidth="1"/>
     <col min="15893" max="16128" width="9" style="28"/>
     <col min="16129" max="16129" width="4" style="28" customWidth="1"/>
     <col min="16130" max="16130" width="5" style="28" customWidth="1"/>
-    <col min="16131" max="16131" width="5.375" style="28" customWidth="1"/>
-    <col min="16132" max="16140" width="4.375" style="28" customWidth="1"/>
-    <col min="16141" max="16141" width="5.125" style="28" customWidth="1"/>
-    <col min="16142" max="16142" width="4.125" style="28" customWidth="1"/>
+    <col min="16131" max="16131" width="5.42578125" style="28" customWidth="1"/>
+    <col min="16132" max="16140" width="4.42578125" style="28" customWidth="1"/>
+    <col min="16141" max="16141" width="5.140625" style="28" customWidth="1"/>
+    <col min="16142" max="16142" width="4.140625" style="28" customWidth="1"/>
     <col min="16143" max="16143" width="6" style="28" customWidth="1"/>
-    <col min="16144" max="16146" width="4.625" style="28" customWidth="1"/>
+    <col min="16144" max="16146" width="4.5703125" style="28" customWidth="1"/>
     <col min="16147" max="16147" width="6" style="28" customWidth="1"/>
-    <col min="16148" max="16148" width="11.875" style="28" customWidth="1"/>
+    <col min="16148" max="16148" width="11.85546875" style="28" customWidth="1"/>
     <col min="16149" max="16384" width="9" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="26" customFormat="1" ht="17.25" customHeight="1">
-      <c r="B1" s="298" t="s">
+      <c r="B1" s="176" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="299"/>
-      <c r="D1" s="299"/>
-      <c r="E1" s="299"/>
-      <c r="F1" s="299"/>
-      <c r="G1" s="299"/>
-      <c r="H1" s="299"/>
-      <c r="I1" s="299"/>
-      <c r="J1" s="299"/>
-      <c r="K1" s="299"/>
-      <c r="L1" s="299"/>
-      <c r="M1" s="299"/>
-      <c r="N1" s="299"/>
-      <c r="O1" s="299"/>
-      <c r="P1" s="299"/>
-      <c r="Q1" s="299"/>
-      <c r="R1" s="299"/>
-      <c r="S1" s="299"/>
-      <c r="T1" s="299"/>
+      <c r="C1" s="177"/>
+      <c r="D1" s="177"/>
+      <c r="E1" s="177"/>
+      <c r="F1" s="177"/>
+      <c r="G1" s="177"/>
+      <c r="H1" s="177"/>
+      <c r="I1" s="177"/>
+      <c r="J1" s="177"/>
+      <c r="K1" s="177"/>
+      <c r="L1" s="177"/>
+      <c r="M1" s="177"/>
+      <c r="N1" s="177"/>
+      <c r="O1" s="177"/>
+      <c r="P1" s="177"/>
+      <c r="Q1" s="177"/>
+      <c r="R1" s="177"/>
+      <c r="S1" s="177"/>
+      <c r="T1" s="177"/>
     </row>
     <row r="2" spans="1:20" s="26" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A2" s="300" t="s">
+      <c r="A2" s="178" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="300"/>
-      <c r="C2" s="300"/>
-      <c r="D2" s="300"/>
-      <c r="E2" s="300"/>
-      <c r="F2" s="300"/>
-      <c r="G2" s="300"/>
-      <c r="H2" s="300"/>
-      <c r="I2" s="300"/>
-      <c r="J2" s="300"/>
-      <c r="K2" s="300"/>
-      <c r="L2" s="300"/>
-      <c r="M2" s="300"/>
-      <c r="N2" s="300"/>
+      <c r="B2" s="178"/>
+      <c r="C2" s="178"/>
+      <c r="D2" s="178"/>
+      <c r="E2" s="178"/>
+      <c r="F2" s="178"/>
+      <c r="G2" s="178"/>
+      <c r="H2" s="178"/>
+      <c r="I2" s="178"/>
+      <c r="J2" s="178"/>
+      <c r="K2" s="178"/>
+      <c r="L2" s="178"/>
+      <c r="M2" s="178"/>
+      <c r="N2" s="178"/>
       <c r="O2" s="27"/>
       <c r="P2" s="27"/>
       <c r="Q2" s="27"/>
       <c r="R2" s="27"/>
-      <c r="S2" s="301" t="s">
+      <c r="S2" s="179" t="s">
         <v>37</v>
       </c>
-      <c r="T2" s="301"/>
+      <c r="T2" s="179"/>
     </row>
     <row r="3" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A3" s="302" t="s">
+      <c r="A3" s="180" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="303"/>
-      <c r="C3" s="303"/>
-      <c r="D3" s="308" t="s">
+      <c r="B3" s="181"/>
+      <c r="C3" s="181"/>
+      <c r="D3" s="186" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="308"/>
-      <c r="F3" s="309"/>
-      <c r="G3" s="310" t="s">
+      <c r="E3" s="186"/>
+      <c r="F3" s="187"/>
+      <c r="G3" s="188" t="s">
         <v>40</v>
       </c>
-      <c r="H3" s="311"/>
-      <c r="I3" s="312"/>
-      <c r="J3" s="316" t="s">
+      <c r="H3" s="189"/>
+      <c r="I3" s="190"/>
+      <c r="J3" s="194" t="s">
         <v>41</v>
       </c>
-      <c r="K3" s="317"/>
-      <c r="L3" s="318"/>
-      <c r="M3" s="319" t="s">
+      <c r="K3" s="195"/>
+      <c r="L3" s="196"/>
+      <c r="M3" s="197" t="s">
         <v>42</v>
       </c>
-      <c r="N3" s="322" t="s">
+      <c r="N3" s="200" t="s">
         <v>43</v>
       </c>
-      <c r="O3" s="324" t="s">
+      <c r="O3" s="202" t="s">
         <v>44</v>
       </c>
-      <c r="P3" s="324"/>
-      <c r="Q3" s="324"/>
-      <c r="R3" s="324"/>
-      <c r="S3" s="324"/>
-      <c r="T3" s="325"/>
+      <c r="P3" s="202"/>
+      <c r="Q3" s="202"/>
+      <c r="R3" s="202"/>
+      <c r="S3" s="202"/>
+      <c r="T3" s="203"/>
     </row>
     <row r="4" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A4" s="304"/>
-      <c r="B4" s="305"/>
-      <c r="C4" s="305"/>
-      <c r="D4" s="283" t="s">
+      <c r="A4" s="182"/>
+      <c r="B4" s="183"/>
+      <c r="C4" s="183"/>
+      <c r="D4" s="208" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="283"/>
+      <c r="E4" s="208"/>
       <c r="F4" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="313"/>
-      <c r="H4" s="314"/>
-      <c r="I4" s="315"/>
-      <c r="J4" s="240" t="s">
+      <c r="G4" s="191"/>
+      <c r="H4" s="192"/>
+      <c r="I4" s="193"/>
+      <c r="J4" s="209" t="s">
         <v>47</v>
       </c>
-      <c r="K4" s="241"/>
+      <c r="K4" s="210"/>
       <c r="L4" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="M4" s="320"/>
-      <c r="N4" s="323"/>
-      <c r="O4" s="326"/>
-      <c r="P4" s="326"/>
-      <c r="Q4" s="326"/>
-      <c r="R4" s="326"/>
-      <c r="S4" s="326"/>
-      <c r="T4" s="327"/>
+      <c r="M4" s="198"/>
+      <c r="N4" s="201"/>
+      <c r="O4" s="204"/>
+      <c r="P4" s="204"/>
+      <c r="Q4" s="204"/>
+      <c r="R4" s="204"/>
+      <c r="S4" s="204"/>
+      <c r="T4" s="205"/>
     </row>
     <row r="5" spans="1:20" ht="18" customHeight="1">
-      <c r="A5" s="306"/>
-      <c r="B5" s="307"/>
-      <c r="C5" s="307"/>
+      <c r="A5" s="184"/>
+      <c r="B5" s="185"/>
+      <c r="C5" s="185"/>
       <c r="D5" s="31" t="s">
         <v>49</v>
       </c>
@@ -7533,21 +7533,21 @@
       <c r="L5" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="M5" s="321"/>
-      <c r="N5" s="323"/>
-      <c r="O5" s="328"/>
-      <c r="P5" s="328"/>
-      <c r="Q5" s="328"/>
-      <c r="R5" s="328"/>
-      <c r="S5" s="328"/>
-      <c r="T5" s="329"/>
+      <c r="M5" s="199"/>
+      <c r="N5" s="201"/>
+      <c r="O5" s="206"/>
+      <c r="P5" s="206"/>
+      <c r="Q5" s="206"/>
+      <c r="R5" s="206"/>
+      <c r="S5" s="206"/>
+      <c r="T5" s="207"/>
     </row>
     <row r="6" spans="1:20" ht="16.5" customHeight="1">
-      <c r="A6" s="284" t="s">
+      <c r="A6" s="211" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="285"/>
-      <c r="C6" s="286"/>
+      <c r="B6" s="212"/>
+      <c r="C6" s="213"/>
       <c r="D6" s="36">
         <v>4</v>
       </c>
@@ -7585,19 +7585,19 @@
       <c r="R6" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="S6" s="287" t="s">
+      <c r="S6" s="214" t="s">
         <v>61</v>
       </c>
-      <c r="T6" s="288"/>
+      <c r="T6" s="215"/>
     </row>
     <row r="7" spans="1:20" ht="17.25" customHeight="1">
-      <c r="A7" s="278" t="s">
+      <c r="A7" s="216" t="s">
         <v>62</v>
       </c>
-      <c r="B7" s="238" t="s">
+      <c r="B7" s="218" t="s">
         <v>63</v>
       </c>
-      <c r="C7" s="239"/>
+      <c r="C7" s="219"/>
       <c r="D7" s="45">
         <v>1</v>
       </c>
@@ -7620,7 +7620,7 @@
       <c r="K7" s="41"/>
       <c r="L7" s="42"/>
       <c r="M7" s="42"/>
-      <c r="N7" s="289" t="s">
+      <c r="N7" s="220" t="s">
         <v>45</v>
       </c>
       <c r="O7" s="47" t="s">
@@ -7636,17 +7636,17 @@
         <f>P7-Q7</f>
         <v>-2</v>
       </c>
-      <c r="S7" s="291" t="s">
+      <c r="S7" s="222" t="s">
         <v>65</v>
       </c>
-      <c r="T7" s="292"/>
+      <c r="T7" s="223"/>
     </row>
     <row r="8" spans="1:20" ht="17.25" customHeight="1">
-      <c r="A8" s="279"/>
-      <c r="B8" s="238" t="s">
+      <c r="A8" s="217"/>
+      <c r="B8" s="218" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="239"/>
+      <c r="C8" s="219"/>
       <c r="D8" s="45"/>
       <c r="E8" s="45">
         <v>1</v>
@@ -7667,7 +7667,7 @@
       <c r="K8" s="41"/>
       <c r="L8" s="42"/>
       <c r="M8" s="42"/>
-      <c r="N8" s="290"/>
+      <c r="N8" s="221"/>
       <c r="O8" s="47" t="s">
         <v>67</v>
       </c>
@@ -7681,15 +7681,15 @@
         <f>P8-Q8</f>
         <v>-8</v>
       </c>
-      <c r="S8" s="293"/>
-      <c r="T8" s="294"/>
+      <c r="S8" s="224"/>
+      <c r="T8" s="225"/>
     </row>
     <row r="9" spans="1:20" ht="18" customHeight="1">
-      <c r="A9" s="279"/>
-      <c r="B9" s="297" t="s">
+      <c r="A9" s="217"/>
+      <c r="B9" s="228" t="s">
         <v>68</v>
       </c>
-      <c r="C9" s="297"/>
+      <c r="C9" s="228"/>
       <c r="D9" s="48">
         <f>SUM(D7:D8)</f>
         <v>1</v>
@@ -7715,7 +7715,7 @@
       <c r="K9" s="52"/>
       <c r="L9" s="51"/>
       <c r="M9" s="53"/>
-      <c r="N9" s="290"/>
+      <c r="N9" s="221"/>
       <c r="O9" s="47" t="s">
         <v>69</v>
       </c>
@@ -7729,17 +7729,17 @@
         <f>P9-Q9</f>
         <v>0</v>
       </c>
-      <c r="S9" s="293"/>
-      <c r="T9" s="294"/>
+      <c r="S9" s="224"/>
+      <c r="T9" s="225"/>
     </row>
     <row r="10" spans="1:20" ht="18" customHeight="1">
-      <c r="A10" s="278" t="s">
+      <c r="A10" s="216" t="s">
         <v>70</v>
       </c>
-      <c r="B10" s="280" t="s">
+      <c r="B10" s="237" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="281"/>
+      <c r="C10" s="238"/>
       <c r="D10" s="45"/>
       <c r="E10" s="45">
         <v>7</v>
@@ -7760,7 +7760,7 @@
       <c r="K10" s="56"/>
       <c r="L10" s="57"/>
       <c r="M10" s="58"/>
-      <c r="N10" s="290"/>
+      <c r="N10" s="221"/>
       <c r="O10" s="47" t="s">
         <v>72</v>
       </c>
@@ -7774,15 +7774,15 @@
         <f>P10-Q10</f>
         <v>0</v>
       </c>
-      <c r="S10" s="293"/>
-      <c r="T10" s="294"/>
+      <c r="S10" s="224"/>
+      <c r="T10" s="225"/>
     </row>
     <row r="11" spans="1:20" ht="18" customHeight="1">
-      <c r="A11" s="279"/>
-      <c r="B11" s="280" t="s">
+      <c r="A11" s="217"/>
+      <c r="B11" s="237" t="s">
         <v>73</v>
       </c>
-      <c r="C11" s="281"/>
+      <c r="C11" s="238"/>
       <c r="D11" s="45">
         <v>3</v>
       </c>
@@ -7805,7 +7805,7 @@
       <c r="K11" s="59"/>
       <c r="L11" s="57"/>
       <c r="M11" s="58"/>
-      <c r="N11" s="290"/>
+      <c r="N11" s="221"/>
       <c r="O11" s="47" t="s">
         <v>74</v>
       </c>
@@ -7819,15 +7819,15 @@
         <f>P11-Q11</f>
         <v>-17</v>
       </c>
-      <c r="S11" s="295"/>
-      <c r="T11" s="296"/>
+      <c r="S11" s="226"/>
+      <c r="T11" s="227"/>
     </row>
     <row r="12" spans="1:20" s="63" customFormat="1" ht="18" customHeight="1">
-      <c r="A12" s="279"/>
-      <c r="B12" s="235" t="s">
+      <c r="A12" s="217"/>
+      <c r="B12" s="239" t="s">
         <v>75</v>
       </c>
-      <c r="C12" s="236"/>
+      <c r="C12" s="240"/>
       <c r="D12" s="48">
         <f>SUM(D10:D11)</f>
         <v>3</v>
@@ -7862,13 +7862,13 @@
       <c r="T12" s="62"/>
     </row>
     <row r="13" spans="1:20" s="63" customFormat="1" ht="18" customHeight="1">
-      <c r="A13" s="282" t="s">
+      <c r="A13" s="241" t="s">
         <v>76</v>
       </c>
-      <c r="B13" s="272" t="s">
+      <c r="B13" s="231" t="s">
         <v>77</v>
       </c>
-      <c r="C13" s="272"/>
+      <c r="C13" s="231"/>
       <c r="D13" s="45">
         <v>3</v>
       </c>
@@ -7889,20 +7889,20 @@
       <c r="K13" s="59"/>
       <c r="L13" s="64"/>
       <c r="M13" s="58"/>
-      <c r="N13" s="270"/>
-      <c r="O13" s="270"/>
-      <c r="P13" s="270"/>
-      <c r="Q13" s="270"/>
-      <c r="R13" s="270"/>
-      <c r="S13" s="270"/>
-      <c r="T13" s="271"/>
+      <c r="N13" s="229"/>
+      <c r="O13" s="229"/>
+      <c r="P13" s="229"/>
+      <c r="Q13" s="229"/>
+      <c r="R13" s="229"/>
+      <c r="S13" s="229"/>
+      <c r="T13" s="230"/>
     </row>
     <row r="14" spans="1:20" s="63" customFormat="1" ht="18" customHeight="1">
-      <c r="A14" s="282"/>
-      <c r="B14" s="272" t="s">
+      <c r="A14" s="241"/>
+      <c r="B14" s="231" t="s">
         <v>78</v>
       </c>
-      <c r="C14" s="272"/>
+      <c r="C14" s="231"/>
       <c r="D14" s="45"/>
       <c r="E14" s="45">
         <v>2</v>
@@ -7923,22 +7923,22 @@
       <c r="K14" s="59"/>
       <c r="L14" s="64"/>
       <c r="M14" s="58"/>
-      <c r="N14" s="270" t="s">
+      <c r="N14" s="229" t="s">
         <v>79</v>
       </c>
-      <c r="O14" s="270"/>
-      <c r="P14" s="270"/>
-      <c r="Q14" s="270"/>
-      <c r="R14" s="270"/>
-      <c r="S14" s="270"/>
-      <c r="T14" s="271"/>
+      <c r="O14" s="229"/>
+      <c r="P14" s="229"/>
+      <c r="Q14" s="229"/>
+      <c r="R14" s="229"/>
+      <c r="S14" s="229"/>
+      <c r="T14" s="230"/>
     </row>
     <row r="15" spans="1:20" s="63" customFormat="1" ht="21" customHeight="1">
-      <c r="A15" s="282"/>
-      <c r="B15" s="272" t="s">
+      <c r="A15" s="241"/>
+      <c r="B15" s="231" t="s">
         <v>80</v>
       </c>
-      <c r="C15" s="272"/>
+      <c r="C15" s="231"/>
       <c r="D15" s="45">
         <v>7</v>
       </c>
@@ -7961,20 +7961,20 @@
       <c r="K15" s="59"/>
       <c r="L15" s="64"/>
       <c r="M15" s="58"/>
-      <c r="N15" s="273"/>
-      <c r="O15" s="274"/>
-      <c r="P15" s="274"/>
-      <c r="Q15" s="274"/>
-      <c r="R15" s="274"/>
-      <c r="S15" s="274"/>
-      <c r="T15" s="275"/>
+      <c r="N15" s="232"/>
+      <c r="O15" s="233"/>
+      <c r="P15" s="233"/>
+      <c r="Q15" s="233"/>
+      <c r="R15" s="233"/>
+      <c r="S15" s="233"/>
+      <c r="T15" s="234"/>
     </row>
     <row r="16" spans="1:20" s="63" customFormat="1" ht="21" customHeight="1">
-      <c r="A16" s="282"/>
-      <c r="B16" s="272" t="s">
+      <c r="A16" s="241"/>
+      <c r="B16" s="231" t="s">
         <v>81</v>
       </c>
-      <c r="C16" s="272"/>
+      <c r="C16" s="231"/>
       <c r="D16" s="45">
         <v>3</v>
       </c>
@@ -7997,20 +7997,20 @@
       <c r="K16" s="59"/>
       <c r="L16" s="64"/>
       <c r="M16" s="58"/>
-      <c r="N16" s="276"/>
-      <c r="O16" s="276"/>
-      <c r="P16" s="276"/>
-      <c r="Q16" s="276"/>
-      <c r="R16" s="276"/>
-      <c r="S16" s="276"/>
-      <c r="T16" s="277"/>
+      <c r="N16" s="235"/>
+      <c r="O16" s="235"/>
+      <c r="P16" s="235"/>
+      <c r="Q16" s="235"/>
+      <c r="R16" s="235"/>
+      <c r="S16" s="235"/>
+      <c r="T16" s="236"/>
     </row>
     <row r="17" spans="1:21" s="63" customFormat="1" ht="18" customHeight="1">
-      <c r="A17" s="282"/>
-      <c r="B17" s="272" t="s">
+      <c r="A17" s="241"/>
+      <c r="B17" s="231" t="s">
         <v>82</v>
       </c>
-      <c r="C17" s="272"/>
+      <c r="C17" s="231"/>
       <c r="D17" s="45">
         <v>8</v>
       </c>
@@ -8033,23 +8033,23 @@
       <c r="K17" s="59"/>
       <c r="L17" s="55"/>
       <c r="M17" s="58"/>
-      <c r="N17" s="264" t="s">
+      <c r="N17" s="242" t="s">
         <v>83</v>
       </c>
-      <c r="O17" s="264"/>
-      <c r="P17" s="264"/>
-      <c r="Q17" s="264"/>
-      <c r="R17" s="264"/>
-      <c r="S17" s="264"/>
-      <c r="T17" s="264"/>
+      <c r="O17" s="242"/>
+      <c r="P17" s="242"/>
+      <c r="Q17" s="242"/>
+      <c r="R17" s="242"/>
+      <c r="S17" s="242"/>
+      <c r="T17" s="242"/>
       <c r="U17" s="65"/>
     </row>
     <row r="18" spans="1:21" s="63" customFormat="1" ht="18" customHeight="1">
-      <c r="A18" s="282"/>
-      <c r="B18" s="235" t="s">
+      <c r="A18" s="241"/>
+      <c r="B18" s="239" t="s">
         <v>75</v>
       </c>
-      <c r="C18" s="236"/>
+      <c r="C18" s="240"/>
       <c r="D18" s="48">
         <f>SUM(D13:D17)</f>
         <v>21</v>
@@ -8075,22 +8075,22 @@
       <c r="K18" s="60"/>
       <c r="L18" s="66"/>
       <c r="M18" s="53"/>
-      <c r="N18" s="265"/>
-      <c r="O18" s="265"/>
-      <c r="P18" s="265"/>
-      <c r="Q18" s="265"/>
-      <c r="R18" s="265"/>
-      <c r="S18" s="265"/>
-      <c r="T18" s="266"/>
+      <c r="N18" s="243"/>
+      <c r="O18" s="243"/>
+      <c r="P18" s="243"/>
+      <c r="Q18" s="243"/>
+      <c r="R18" s="243"/>
+      <c r="S18" s="243"/>
+      <c r="T18" s="244"/>
     </row>
     <row r="19" spans="1:21" s="63" customFormat="1" ht="18" customHeight="1">
-      <c r="A19" s="267" t="s">
+      <c r="A19" s="245" t="s">
         <v>84</v>
       </c>
-      <c r="B19" s="253" t="s">
+      <c r="B19" s="248" t="s">
         <v>77</v>
       </c>
-      <c r="C19" s="254"/>
+      <c r="C19" s="249"/>
       <c r="D19" s="45">
         <v>1</v>
       </c>
@@ -8111,20 +8111,20 @@
       <c r="K19" s="59"/>
       <c r="L19" s="55"/>
       <c r="M19" s="58"/>
-      <c r="N19" s="240"/>
-      <c r="O19" s="241"/>
-      <c r="P19" s="261"/>
-      <c r="Q19" s="241"/>
-      <c r="R19" s="242"/>
-      <c r="S19" s="243"/>
+      <c r="N19" s="209"/>
+      <c r="O19" s="210"/>
+      <c r="P19" s="250"/>
+      <c r="Q19" s="210"/>
+      <c r="R19" s="251"/>
+      <c r="S19" s="252"/>
       <c r="T19" s="67"/>
     </row>
     <row r="20" spans="1:21" s="63" customFormat="1" ht="18" customHeight="1">
-      <c r="A20" s="268"/>
-      <c r="B20" s="253" t="s">
+      <c r="A20" s="246"/>
+      <c r="B20" s="248" t="s">
         <v>84</v>
       </c>
-      <c r="C20" s="254"/>
+      <c r="C20" s="249"/>
       <c r="D20" s="45">
         <v>3</v>
       </c>
@@ -8145,28 +8145,28 @@
       <c r="K20" s="59"/>
       <c r="L20" s="55"/>
       <c r="M20" s="58"/>
-      <c r="N20" s="240" t="s">
+      <c r="N20" s="209" t="s">
         <v>85</v>
       </c>
-      <c r="O20" s="241"/>
-      <c r="P20" s="261" t="s">
+      <c r="O20" s="210"/>
+      <c r="P20" s="250" t="s">
         <v>51</v>
       </c>
-      <c r="Q20" s="241"/>
-      <c r="R20" s="242" t="s">
+      <c r="Q20" s="210"/>
+      <c r="R20" s="251" t="s">
         <v>86</v>
       </c>
-      <c r="S20" s="243"/>
+      <c r="S20" s="252"/>
       <c r="T20" s="67" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:21" s="63" customFormat="1" ht="18" customHeight="1">
-      <c r="A21" s="268"/>
-      <c r="B21" s="253" t="s">
+      <c r="A21" s="246"/>
+      <c r="B21" s="248" t="s">
         <v>88</v>
       </c>
-      <c r="C21" s="254"/>
+      <c r="C21" s="249"/>
       <c r="D21" s="45">
         <v>11</v>
       </c>
@@ -8189,28 +8189,28 @@
       <c r="K21" s="59"/>
       <c r="L21" s="55"/>
       <c r="M21" s="58"/>
-      <c r="N21" s="260" t="s">
+      <c r="N21" s="253" t="s">
         <v>89</v>
       </c>
-      <c r="O21" s="241"/>
-      <c r="P21" s="261">
+      <c r="O21" s="210"/>
+      <c r="P21" s="250">
         <v>14</v>
       </c>
-      <c r="Q21" s="241"/>
-      <c r="R21" s="259">
+      <c r="Q21" s="210"/>
+      <c r="R21" s="254">
         <v>4.1700000000000001E-2</v>
       </c>
-      <c r="S21" s="262"/>
+      <c r="S21" s="255"/>
       <c r="T21" s="67" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:21" s="63" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A22" s="268"/>
-      <c r="B22" s="253" t="s">
+      <c r="A22" s="246"/>
+      <c r="B22" s="248" t="s">
         <v>91</v>
       </c>
-      <c r="C22" s="254"/>
+      <c r="C22" s="249"/>
       <c r="D22" s="45">
         <v>10</v>
       </c>
@@ -8235,28 +8235,28 @@
       <c r="M22" s="58">
         <v>2</v>
       </c>
-      <c r="N22" s="240" t="s">
+      <c r="N22" s="209" t="s">
         <v>78</v>
       </c>
-      <c r="O22" s="241"/>
-      <c r="P22" s="258">
+      <c r="O22" s="210"/>
+      <c r="P22" s="256">
         <v>3</v>
       </c>
-      <c r="Q22" s="258"/>
-      <c r="R22" s="263">
+      <c r="Q22" s="256"/>
+      <c r="R22" s="257">
         <v>0.01</v>
       </c>
-      <c r="S22" s="257"/>
+      <c r="S22" s="258"/>
       <c r="T22" s="67" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="18" customHeight="1">
-      <c r="A23" s="268"/>
-      <c r="B23" s="253" t="s">
+      <c r="A23" s="246"/>
+      <c r="B23" s="248" t="s">
         <v>93</v>
       </c>
-      <c r="C23" s="254"/>
+      <c r="C23" s="249"/>
       <c r="D23" s="45">
         <v>1</v>
       </c>
@@ -8279,20 +8279,20 @@
       <c r="K23" s="59"/>
       <c r="L23" s="55"/>
       <c r="M23" s="58"/>
-      <c r="N23" s="241"/>
-      <c r="O23" s="257"/>
-      <c r="P23" s="258"/>
-      <c r="Q23" s="258"/>
-      <c r="R23" s="259"/>
-      <c r="S23" s="241"/>
+      <c r="N23" s="210"/>
+      <c r="O23" s="258"/>
+      <c r="P23" s="256"/>
+      <c r="Q23" s="256"/>
+      <c r="R23" s="254"/>
+      <c r="S23" s="210"/>
       <c r="T23" s="67"/>
     </row>
     <row r="24" spans="1:21" ht="18" customHeight="1">
-      <c r="A24" s="268"/>
-      <c r="B24" s="253" t="s">
+      <c r="A24" s="246"/>
+      <c r="B24" s="248" t="s">
         <v>94</v>
       </c>
-      <c r="C24" s="254"/>
+      <c r="C24" s="249"/>
       <c r="D24" s="45"/>
       <c r="E24" s="45">
         <v>1</v>
@@ -8313,20 +8313,20 @@
       <c r="K24" s="59"/>
       <c r="L24" s="55"/>
       <c r="M24" s="58"/>
-      <c r="N24" s="260"/>
-      <c r="O24" s="241"/>
-      <c r="P24" s="242"/>
-      <c r="Q24" s="243"/>
+      <c r="N24" s="253"/>
+      <c r="O24" s="210"/>
+      <c r="P24" s="251"/>
+      <c r="Q24" s="252"/>
       <c r="R24" s="68"/>
       <c r="S24" s="33"/>
       <c r="T24" s="67"/>
     </row>
     <row r="25" spans="1:21" ht="18" customHeight="1">
-      <c r="A25" s="268"/>
-      <c r="B25" s="253" t="s">
+      <c r="A25" s="246"/>
+      <c r="B25" s="248" t="s">
         <v>95</v>
       </c>
-      <c r="C25" s="254" t="s">
+      <c r="C25" s="249" t="s">
         <v>96</v>
       </c>
       <c r="D25" s="36">
@@ -8355,20 +8355,20 @@
       <c r="M25" s="42">
         <v>27</v>
       </c>
-      <c r="N25" s="211"/>
-      <c r="O25" s="248"/>
-      <c r="P25" s="256"/>
-      <c r="Q25" s="256"/>
-      <c r="R25" s="249"/>
-      <c r="S25" s="248"/>
+      <c r="N25" s="263"/>
+      <c r="O25" s="260"/>
+      <c r="P25" s="264"/>
+      <c r="Q25" s="264"/>
+      <c r="R25" s="259"/>
+      <c r="S25" s="260"/>
       <c r="T25" s="69"/>
     </row>
     <row r="26" spans="1:21" ht="18" customHeight="1">
-      <c r="A26" s="268"/>
-      <c r="B26" s="246" t="s">
+      <c r="A26" s="246"/>
+      <c r="B26" s="261" t="s">
         <v>97</v>
       </c>
-      <c r="C26" s="247"/>
+      <c r="C26" s="262"/>
       <c r="D26" s="38">
         <v>12</v>
       </c>
@@ -8402,20 +8402,20 @@
       <c r="M26" s="42">
         <v>56</v>
       </c>
-      <c r="N26" s="211"/>
-      <c r="O26" s="248"/>
-      <c r="P26" s="256"/>
-      <c r="Q26" s="256"/>
-      <c r="R26" s="249"/>
-      <c r="S26" s="248"/>
+      <c r="N26" s="263"/>
+      <c r="O26" s="260"/>
+      <c r="P26" s="264"/>
+      <c r="Q26" s="264"/>
+      <c r="R26" s="259"/>
+      <c r="S26" s="260"/>
       <c r="T26" s="69"/>
     </row>
     <row r="27" spans="1:21" ht="19.5" customHeight="1">
-      <c r="A27" s="268"/>
-      <c r="B27" s="253" t="s">
+      <c r="A27" s="246"/>
+      <c r="B27" s="248" t="s">
         <v>98</v>
       </c>
-      <c r="C27" s="254" t="s">
+      <c r="C27" s="249" t="s">
         <v>96</v>
       </c>
       <c r="D27" s="36">
@@ -8442,21 +8442,21 @@
       <c r="M27" s="42">
         <v>1</v>
       </c>
-      <c r="N27" s="240"/>
-      <c r="O27" s="241"/>
-      <c r="P27" s="242"/>
-      <c r="Q27" s="243"/>
+      <c r="N27" s="209"/>
+      <c r="O27" s="210"/>
+      <c r="P27" s="251"/>
+      <c r="Q27" s="252"/>
       <c r="R27" s="68"/>
       <c r="S27" s="33"/>
       <c r="T27" s="67"/>
       <c r="U27" s="70"/>
     </row>
     <row r="28" spans="1:21" ht="19.5" customHeight="1">
-      <c r="A28" s="268"/>
-      <c r="B28" s="253" t="s">
+      <c r="A28" s="246"/>
+      <c r="B28" s="248" t="s">
         <v>99</v>
       </c>
-      <c r="C28" s="254"/>
+      <c r="C28" s="249"/>
       <c r="D28" s="36">
         <v>3</v>
       </c>
@@ -8489,11 +8489,11 @@
       <c r="U28" s="70"/>
     </row>
     <row r="29" spans="1:21" ht="18" customHeight="1">
-      <c r="A29" s="268"/>
-      <c r="B29" s="255" t="s">
+      <c r="A29" s="246"/>
+      <c r="B29" s="265" t="s">
         <v>100</v>
       </c>
-      <c r="C29" s="255"/>
+      <c r="C29" s="265"/>
       <c r="D29" s="36">
         <v>2</v>
       </c>
@@ -8527,19 +8527,19 @@
       </c>
       <c r="N29" s="71"/>
       <c r="O29" s="33"/>
-      <c r="P29" s="242"/>
-      <c r="Q29" s="243"/>
+      <c r="P29" s="251"/>
+      <c r="Q29" s="252"/>
       <c r="R29" s="68"/>
       <c r="S29" s="33"/>
       <c r="T29" s="67"/>
       <c r="U29" s="70"/>
     </row>
     <row r="30" spans="1:21" ht="18" customHeight="1">
-      <c r="A30" s="268"/>
-      <c r="B30" s="246" t="s">
+      <c r="A30" s="246"/>
+      <c r="B30" s="261" t="s">
         <v>101</v>
       </c>
-      <c r="C30" s="247"/>
+      <c r="C30" s="262"/>
       <c r="D30" s="36">
         <v>1</v>
       </c>
@@ -8572,11 +8572,11 @@
       <c r="U30" s="74"/>
     </row>
     <row r="31" spans="1:21" ht="19.5" customHeight="1">
-      <c r="A31" s="269"/>
-      <c r="B31" s="235" t="s">
+      <c r="A31" s="247"/>
+      <c r="B31" s="239" t="s">
         <v>75</v>
       </c>
-      <c r="C31" s="236"/>
+      <c r="C31" s="240"/>
       <c r="D31" s="50">
         <f t="shared" ref="D31:I31" si="2">SUM(D19:D30)</f>
         <v>97</v>
@@ -8617,22 +8617,22 @@
         <f>SUM(M20:M30)</f>
         <v>97</v>
       </c>
-      <c r="N31" s="211"/>
-      <c r="O31" s="248"/>
-      <c r="P31" s="248"/>
-      <c r="Q31" s="248"/>
-      <c r="R31" s="248"/>
-      <c r="S31" s="248"/>
+      <c r="N31" s="263"/>
+      <c r="O31" s="260"/>
+      <c r="P31" s="260"/>
+      <c r="Q31" s="260"/>
+      <c r="R31" s="260"/>
+      <c r="S31" s="260"/>
       <c r="T31" s="78"/>
     </row>
     <row r="32" spans="1:21" ht="18" customHeight="1">
-      <c r="A32" s="250" t="s">
+      <c r="A32" s="271" t="s">
         <v>102</v>
       </c>
-      <c r="B32" s="238" t="s">
+      <c r="B32" s="218" t="s">
         <v>103</v>
       </c>
-      <c r="C32" s="239"/>
+      <c r="C32" s="219"/>
       <c r="D32" s="36">
         <v>2</v>
       </c>
@@ -8653,21 +8653,21 @@
       <c r="K32" s="41"/>
       <c r="L32" s="40"/>
       <c r="M32" s="42"/>
-      <c r="N32" s="240"/>
-      <c r="O32" s="241"/>
-      <c r="P32" s="248"/>
-      <c r="Q32" s="248"/>
-      <c r="R32" s="249"/>
-      <c r="S32" s="249"/>
+      <c r="N32" s="209"/>
+      <c r="O32" s="210"/>
+      <c r="P32" s="260"/>
+      <c r="Q32" s="260"/>
+      <c r="R32" s="259"/>
+      <c r="S32" s="259"/>
       <c r="T32" s="69"/>
       <c r="U32" s="70"/>
     </row>
     <row r="33" spans="1:21" ht="18" customHeight="1">
-      <c r="A33" s="251"/>
-      <c r="B33" s="238" t="s">
+      <c r="A33" s="272"/>
+      <c r="B33" s="218" t="s">
         <v>104</v>
       </c>
-      <c r="C33" s="239"/>
+      <c r="C33" s="219"/>
       <c r="D33" s="36"/>
       <c r="E33" s="36">
         <v>2</v>
@@ -8688,21 +8688,21 @@
       <c r="K33" s="41"/>
       <c r="L33" s="40"/>
       <c r="M33" s="42"/>
-      <c r="N33" s="240"/>
-      <c r="O33" s="241"/>
-      <c r="P33" s="248"/>
-      <c r="Q33" s="248"/>
-      <c r="R33" s="249"/>
-      <c r="S33" s="249"/>
+      <c r="N33" s="209"/>
+      <c r="O33" s="210"/>
+      <c r="P33" s="260"/>
+      <c r="Q33" s="260"/>
+      <c r="R33" s="259"/>
+      <c r="S33" s="259"/>
       <c r="T33" s="69"/>
       <c r="U33" s="70"/>
     </row>
     <row r="34" spans="1:21" ht="18" customHeight="1">
-      <c r="A34" s="251"/>
-      <c r="B34" s="238" t="s">
+      <c r="A34" s="272"/>
+      <c r="B34" s="218" t="s">
         <v>105</v>
       </c>
-      <c r="C34" s="239"/>
+      <c r="C34" s="219"/>
       <c r="D34" s="36">
         <v>2</v>
       </c>
@@ -8725,21 +8725,21 @@
       <c r="K34" s="41"/>
       <c r="L34" s="40"/>
       <c r="M34" s="42"/>
-      <c r="N34" s="240"/>
-      <c r="O34" s="241"/>
-      <c r="P34" s="215"/>
-      <c r="Q34" s="211"/>
-      <c r="R34" s="212"/>
-      <c r="S34" s="213"/>
+      <c r="N34" s="209"/>
+      <c r="O34" s="210"/>
+      <c r="P34" s="266"/>
+      <c r="Q34" s="263"/>
+      <c r="R34" s="267"/>
+      <c r="S34" s="268"/>
       <c r="T34" s="78"/>
       <c r="U34" s="70"/>
     </row>
     <row r="35" spans="1:21" ht="18" customHeight="1">
-      <c r="A35" s="251"/>
-      <c r="B35" s="238" t="s">
+      <c r="A35" s="272"/>
+      <c r="B35" s="218" t="s">
         <v>106</v>
       </c>
-      <c r="C35" s="239"/>
+      <c r="C35" s="219"/>
       <c r="D35" s="36"/>
       <c r="E35" s="36">
         <v>39</v>
@@ -8772,11 +8772,11 @@
       <c r="U35" s="70"/>
     </row>
     <row r="36" spans="1:21" ht="18" customHeight="1">
-      <c r="A36" s="252"/>
-      <c r="B36" s="235" t="s">
+      <c r="A36" s="273"/>
+      <c r="B36" s="239" t="s">
         <v>75</v>
       </c>
-      <c r="C36" s="236"/>
+      <c r="C36" s="240"/>
       <c r="D36" s="50">
         <f>SUM(D32:D35)</f>
         <v>4</v>
@@ -8814,22 +8814,22 @@
         <f>SUM(M33:M35)</f>
         <v>5</v>
       </c>
-      <c r="N36" s="240"/>
-      <c r="O36" s="241"/>
-      <c r="P36" s="242"/>
-      <c r="Q36" s="243"/>
+      <c r="N36" s="209"/>
+      <c r="O36" s="210"/>
+      <c r="P36" s="251"/>
+      <c r="Q36" s="252"/>
       <c r="R36" s="68"/>
       <c r="S36" s="73"/>
       <c r="T36" s="67"/>
     </row>
     <row r="37" spans="1:21" ht="19.5" customHeight="1">
-      <c r="A37" s="244" t="s">
+      <c r="A37" s="269" t="s">
         <v>107</v>
       </c>
-      <c r="B37" s="246" t="s">
+      <c r="B37" s="261" t="s">
         <v>77</v>
       </c>
-      <c r="C37" s="247"/>
+      <c r="C37" s="262"/>
       <c r="D37" s="36">
         <v>1</v>
       </c>
@@ -8859,11 +8859,11 @@
       <c r="T37" s="67"/>
     </row>
     <row r="38" spans="1:21" ht="19.5" customHeight="1">
-      <c r="A38" s="245"/>
-      <c r="B38" s="246" t="s">
+      <c r="A38" s="270"/>
+      <c r="B38" s="261" t="s">
         <v>108</v>
       </c>
-      <c r="C38" s="247"/>
+      <c r="C38" s="262"/>
       <c r="D38" s="36"/>
       <c r="E38" s="36">
         <v>5</v>
@@ -8895,11 +8895,11 @@
       <c r="T38" s="67"/>
     </row>
     <row r="39" spans="1:21" ht="21.75" customHeight="1">
-      <c r="A39" s="245"/>
-      <c r="B39" s="246" t="s">
+      <c r="A39" s="270"/>
+      <c r="B39" s="261" t="s">
         <v>109</v>
       </c>
-      <c r="C39" s="247"/>
+      <c r="C39" s="262"/>
       <c r="D39" s="36">
         <v>14</v>
       </c>
@@ -8936,11 +8936,11 @@
       <c r="T39" s="67"/>
     </row>
     <row r="40" spans="1:21" ht="21.75" customHeight="1">
-      <c r="A40" s="245"/>
-      <c r="B40" s="246" t="s">
+      <c r="A40" s="270"/>
+      <c r="B40" s="261" t="s">
         <v>110</v>
       </c>
-      <c r="C40" s="247"/>
+      <c r="C40" s="262"/>
       <c r="D40" s="36">
         <v>6</v>
       </c>
@@ -8970,11 +8970,11 @@
       <c r="T40" s="67"/>
     </row>
     <row r="41" spans="1:21" ht="21.75" customHeight="1">
-      <c r="A41" s="245"/>
-      <c r="B41" s="246" t="s">
+      <c r="A41" s="270"/>
+      <c r="B41" s="261" t="s">
         <v>111</v>
       </c>
-      <c r="C41" s="247"/>
+      <c r="C41" s="262"/>
       <c r="D41" s="36">
         <v>2</v>
       </c>
@@ -9004,11 +9004,11 @@
       <c r="T41" s="67"/>
     </row>
     <row r="42" spans="1:21" ht="18" customHeight="1">
-      <c r="A42" s="245"/>
-      <c r="B42" s="235" t="s">
+      <c r="A42" s="270"/>
+      <c r="B42" s="239" t="s">
         <v>75</v>
       </c>
-      <c r="C42" s="236"/>
+      <c r="C42" s="240"/>
       <c r="D42" s="50">
         <f>SUM(D37:D41)</f>
         <v>23</v>
@@ -9055,13 +9055,13 @@
       <c r="T42" s="67"/>
     </row>
     <row r="43" spans="1:21" ht="18" customHeight="1">
-      <c r="A43" s="237" t="s">
+      <c r="A43" s="279" t="s">
         <v>112</v>
       </c>
-      <c r="B43" s="238" t="s">
+      <c r="B43" s="218" t="s">
         <v>103</v>
       </c>
-      <c r="C43" s="239"/>
+      <c r="C43" s="219"/>
       <c r="D43" s="88"/>
       <c r="E43" s="88">
         <v>1</v>
@@ -9091,11 +9091,11 @@
       <c r="T43" s="67"/>
     </row>
     <row r="44" spans="1:21" ht="18" customHeight="1">
-      <c r="A44" s="237"/>
-      <c r="B44" s="238" t="s">
+      <c r="A44" s="279"/>
+      <c r="B44" s="218" t="s">
         <v>112</v>
       </c>
-      <c r="C44" s="239"/>
+      <c r="C44" s="219"/>
       <c r="D44" s="88"/>
       <c r="E44" s="88">
         <v>1</v>
@@ -9125,11 +9125,11 @@
       <c r="T44" s="67"/>
     </row>
     <row r="45" spans="1:21" s="89" customFormat="1" ht="18" customHeight="1">
-      <c r="A45" s="237"/>
-      <c r="B45" s="238" t="s">
+      <c r="A45" s="279"/>
+      <c r="B45" s="218" t="s">
         <v>113</v>
       </c>
-      <c r="C45" s="239"/>
+      <c r="C45" s="219"/>
       <c r="D45" s="88"/>
       <c r="E45" s="88">
         <v>6</v>
@@ -9150,20 +9150,20 @@
       <c r="K45" s="41"/>
       <c r="L45" s="40"/>
       <c r="M45" s="42"/>
-      <c r="N45" s="214"/>
-      <c r="O45" s="211"/>
-      <c r="P45" s="231"/>
-      <c r="Q45" s="232"/>
-      <c r="R45" s="212"/>
-      <c r="S45" s="213"/>
+      <c r="N45" s="280"/>
+      <c r="O45" s="263"/>
+      <c r="P45" s="274"/>
+      <c r="Q45" s="275"/>
+      <c r="R45" s="267"/>
+      <c r="S45" s="268"/>
       <c r="T45" s="69"/>
     </row>
     <row r="46" spans="1:21" s="89" customFormat="1" ht="18" customHeight="1">
-      <c r="A46" s="237"/>
-      <c r="B46" s="233" t="s">
+      <c r="A46" s="279"/>
+      <c r="B46" s="276" t="s">
         <v>75</v>
       </c>
-      <c r="C46" s="234"/>
+      <c r="C46" s="277"/>
       <c r="D46" s="48"/>
       <c r="E46" s="48">
         <f>SUM(E43:E45)</f>
@@ -9186,84 +9186,84 @@
       <c r="K46" s="60"/>
       <c r="L46" s="66"/>
       <c r="M46" s="53"/>
-      <c r="N46" s="210"/>
-      <c r="O46" s="211"/>
-      <c r="P46" s="231"/>
-      <c r="Q46" s="232"/>
-      <c r="R46" s="212"/>
-      <c r="S46" s="213"/>
+      <c r="N46" s="278"/>
+      <c r="O46" s="263"/>
+      <c r="P46" s="274"/>
+      <c r="Q46" s="275"/>
+      <c r="R46" s="267"/>
+      <c r="S46" s="268"/>
       <c r="T46" s="69"/>
     </row>
     <row r="47" spans="1:21" ht="18" customHeight="1">
-      <c r="A47" s="223" t="s">
+      <c r="A47" s="288" t="s">
         <v>114</v>
       </c>
-      <c r="B47" s="224"/>
-      <c r="C47" s="225"/>
-      <c r="D47" s="221">
+      <c r="B47" s="289"/>
+      <c r="C47" s="290"/>
+      <c r="D47" s="286">
         <f t="shared" ref="D47:I47" si="3">D6+D9+D12+D18+D31+D36+D42+D46</f>
         <v>153</v>
       </c>
-      <c r="E47" s="221">
+      <c r="E47" s="286">
         <f t="shared" si="3"/>
         <v>345</v>
       </c>
-      <c r="F47" s="221">
+      <c r="F47" s="286">
         <f t="shared" si="3"/>
         <v>498</v>
       </c>
-      <c r="G47" s="229">
+      <c r="G47" s="294">
         <f t="shared" si="3"/>
         <v>204</v>
       </c>
-      <c r="H47" s="221">
+      <c r="H47" s="286">
         <f t="shared" si="3"/>
         <v>294</v>
       </c>
-      <c r="I47" s="219">
+      <c r="I47" s="284">
         <f t="shared" si="3"/>
         <v>498</v>
       </c>
-      <c r="J47" s="221"/>
-      <c r="K47" s="221"/>
-      <c r="L47" s="219"/>
-      <c r="M47" s="219"/>
-      <c r="N47" s="214"/>
-      <c r="O47" s="211"/>
-      <c r="P47" s="210"/>
-      <c r="Q47" s="211"/>
-      <c r="R47" s="212"/>
-      <c r="S47" s="213"/>
+      <c r="J47" s="286"/>
+      <c r="K47" s="286"/>
+      <c r="L47" s="284"/>
+      <c r="M47" s="284"/>
+      <c r="N47" s="280"/>
+      <c r="O47" s="263"/>
+      <c r="P47" s="278"/>
+      <c r="Q47" s="263"/>
+      <c r="R47" s="267"/>
+      <c r="S47" s="268"/>
       <c r="T47" s="69"/>
     </row>
     <row r="48" spans="1:21" ht="18" customHeight="1">
-      <c r="A48" s="226"/>
-      <c r="B48" s="227"/>
-      <c r="C48" s="228"/>
-      <c r="D48" s="222"/>
-      <c r="E48" s="222"/>
-      <c r="F48" s="222"/>
-      <c r="G48" s="230"/>
-      <c r="H48" s="222"/>
-      <c r="I48" s="220"/>
-      <c r="J48" s="222"/>
-      <c r="K48" s="222"/>
-      <c r="L48" s="220"/>
-      <c r="M48" s="220"/>
-      <c r="N48" s="214"/>
-      <c r="O48" s="211"/>
-      <c r="P48" s="215"/>
-      <c r="Q48" s="211"/>
+      <c r="A48" s="291"/>
+      <c r="B48" s="292"/>
+      <c r="C48" s="293"/>
+      <c r="D48" s="287"/>
+      <c r="E48" s="287"/>
+      <c r="F48" s="287"/>
+      <c r="G48" s="295"/>
+      <c r="H48" s="287"/>
+      <c r="I48" s="285"/>
+      <c r="J48" s="287"/>
+      <c r="K48" s="287"/>
+      <c r="L48" s="285"/>
+      <c r="M48" s="285"/>
+      <c r="N48" s="280"/>
+      <c r="O48" s="263"/>
+      <c r="P48" s="266"/>
+      <c r="Q48" s="263"/>
       <c r="R48" s="84"/>
       <c r="S48" s="85"/>
       <c r="T48" s="69"/>
     </row>
     <row r="49" spans="1:20" s="93" customFormat="1" ht="18" customHeight="1">
-      <c r="A49" s="216" t="s">
+      <c r="A49" s="281" t="s">
         <v>115</v>
       </c>
-      <c r="B49" s="217"/>
-      <c r="C49" s="218"/>
+      <c r="B49" s="282"/>
+      <c r="C49" s="283"/>
       <c r="D49" s="36">
         <v>5</v>
       </c>
@@ -9290,108 +9290,108 @@
       <c r="M49" s="91"/>
       <c r="N49" s="92"/>
       <c r="O49" s="83"/>
-      <c r="P49" s="215"/>
-      <c r="Q49" s="211"/>
+      <c r="P49" s="266"/>
+      <c r="Q49" s="263"/>
       <c r="R49" s="82"/>
       <c r="S49" s="83"/>
       <c r="T49" s="78"/>
     </row>
     <row r="50" spans="1:20" ht="0.75" customHeight="1">
-      <c r="A50" s="192" t="s">
+      <c r="A50" s="312" t="s">
         <v>116</v>
       </c>
-      <c r="B50" s="193"/>
-      <c r="C50" s="194"/>
-      <c r="D50" s="201">
+      <c r="B50" s="313"/>
+      <c r="C50" s="314"/>
+      <c r="D50" s="321">
         <f>D47+E47+D49+E49</f>
         <v>518</v>
       </c>
-      <c r="E50" s="202"/>
-      <c r="F50" s="176">
+      <c r="E50" s="322"/>
+      <c r="F50" s="296">
         <f>F47+F49</f>
         <v>518</v>
       </c>
-      <c r="G50" s="207">
+      <c r="G50" s="327">
         <f>G47+G49</f>
         <v>214</v>
       </c>
-      <c r="H50" s="176">
+      <c r="H50" s="296">
         <f>H47+H49</f>
         <v>304</v>
       </c>
-      <c r="I50" s="179">
+      <c r="I50" s="299">
         <f>I47+I49</f>
         <v>518</v>
       </c>
-      <c r="J50" s="176">
+      <c r="J50" s="296">
         <f>SUM(J9+J12+J18+J31+J36+J42+J46)</f>
         <v>2</v>
       </c>
-      <c r="K50" s="176">
+      <c r="K50" s="296">
         <f>SUM(K9+K12+K18+K31+K36+K42+K46)</f>
         <v>46</v>
       </c>
-      <c r="L50" s="179">
+      <c r="L50" s="299">
         <f>SUM(J50:K50)</f>
         <v>48</v>
       </c>
-      <c r="M50" s="182">
+      <c r="M50" s="302">
         <f>M31+M36+M42</f>
         <v>104</v>
       </c>
-      <c r="N50" s="185" t="s">
+      <c r="N50" s="305" t="s">
         <v>117</v>
       </c>
-      <c r="O50" s="185"/>
-      <c r="P50" s="185"/>
-      <c r="Q50" s="185"/>
-      <c r="R50" s="185"/>
-      <c r="S50" s="185"/>
-      <c r="T50" s="186"/>
+      <c r="O50" s="305"/>
+      <c r="P50" s="305"/>
+      <c r="Q50" s="305"/>
+      <c r="R50" s="305"/>
+      <c r="S50" s="305"/>
+      <c r="T50" s="306"/>
     </row>
     <row r="51" spans="1:20" s="94" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A51" s="195"/>
-      <c r="B51" s="196"/>
-      <c r="C51" s="197"/>
-      <c r="D51" s="203"/>
-      <c r="E51" s="204"/>
-      <c r="F51" s="177"/>
-      <c r="G51" s="208"/>
-      <c r="H51" s="177"/>
-      <c r="I51" s="180"/>
-      <c r="J51" s="177"/>
-      <c r="K51" s="177"/>
-      <c r="L51" s="180"/>
-      <c r="M51" s="183"/>
-      <c r="N51" s="187"/>
-      <c r="O51" s="187"/>
-      <c r="P51" s="187"/>
-      <c r="Q51" s="187"/>
-      <c r="R51" s="187"/>
-      <c r="S51" s="187"/>
-      <c r="T51" s="188"/>
+      <c r="A51" s="315"/>
+      <c r="B51" s="316"/>
+      <c r="C51" s="317"/>
+      <c r="D51" s="323"/>
+      <c r="E51" s="324"/>
+      <c r="F51" s="297"/>
+      <c r="G51" s="328"/>
+      <c r="H51" s="297"/>
+      <c r="I51" s="300"/>
+      <c r="J51" s="297"/>
+      <c r="K51" s="297"/>
+      <c r="L51" s="300"/>
+      <c r="M51" s="303"/>
+      <c r="N51" s="307"/>
+      <c r="O51" s="307"/>
+      <c r="P51" s="307"/>
+      <c r="Q51" s="307"/>
+      <c r="R51" s="307"/>
+      <c r="S51" s="307"/>
+      <c r="T51" s="308"/>
     </row>
     <row r="52" spans="1:20" ht="27" customHeight="1" thickBot="1">
-      <c r="A52" s="198"/>
-      <c r="B52" s="199"/>
-      <c r="C52" s="200"/>
-      <c r="D52" s="205"/>
-      <c r="E52" s="206"/>
-      <c r="F52" s="178"/>
-      <c r="G52" s="209"/>
-      <c r="H52" s="178"/>
-      <c r="I52" s="181"/>
-      <c r="J52" s="178"/>
-      <c r="K52" s="178"/>
-      <c r="L52" s="181"/>
-      <c r="M52" s="184"/>
-      <c r="N52" s="189"/>
-      <c r="O52" s="189"/>
-      <c r="P52" s="189"/>
-      <c r="Q52" s="189"/>
-      <c r="R52" s="189"/>
-      <c r="S52" s="189"/>
-      <c r="T52" s="190"/>
+      <c r="A52" s="318"/>
+      <c r="B52" s="319"/>
+      <c r="C52" s="320"/>
+      <c r="D52" s="325"/>
+      <c r="E52" s="326"/>
+      <c r="F52" s="298"/>
+      <c r="G52" s="329"/>
+      <c r="H52" s="298"/>
+      <c r="I52" s="301"/>
+      <c r="J52" s="298"/>
+      <c r="K52" s="298"/>
+      <c r="L52" s="301"/>
+      <c r="M52" s="304"/>
+      <c r="N52" s="309"/>
+      <c r="O52" s="309"/>
+      <c r="P52" s="309"/>
+      <c r="Q52" s="309"/>
+      <c r="R52" s="309"/>
+      <c r="S52" s="309"/>
+      <c r="T52" s="310"/>
     </row>
     <row r="53" spans="1:20" s="95" customFormat="1" ht="19.5" customHeight="1">
       <c r="A53" s="95" t="s">
@@ -9400,15 +9400,15 @@
       <c r="D53" s="96"/>
       <c r="E53" s="96"/>
       <c r="M53" s="97"/>
-      <c r="N53" s="191" t="s">
+      <c r="N53" s="311" t="s">
         <v>119</v>
       </c>
-      <c r="O53" s="191"/>
-      <c r="P53" s="191"/>
-      <c r="Q53" s="191"/>
-      <c r="R53" s="191"/>
-      <c r="S53" s="191"/>
-      <c r="T53" s="191"/>
+      <c r="O53" s="311"/>
+      <c r="P53" s="311"/>
+      <c r="Q53" s="311"/>
+      <c r="R53" s="311"/>
+      <c r="S53" s="311"/>
+      <c r="T53" s="311"/>
     </row>
     <row r="54" spans="1:20" s="100" customFormat="1" ht="23.25" customHeight="1">
       <c r="A54" s="28"/>
@@ -9456,42 +9456,90 @@
     </row>
   </sheetData>
   <mergeCells count="144">
-    <mergeCell ref="B1:T1"/>
-    <mergeCell ref="A2:N2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="A3:C5"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G3:I4"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="M3:M5"/>
-    <mergeCell ref="N3:N5"/>
-    <mergeCell ref="O3:T5"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="N7:N11"/>
-    <mergeCell ref="S7:T11"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="N13:T13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="N14:T14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="N15:T15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="N16:T16"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="A13:A18"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="N17:T18"/>
-    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="J50:J52"/>
+    <mergeCell ref="K50:K52"/>
+    <mergeCell ref="L50:L52"/>
+    <mergeCell ref="M50:M52"/>
+    <mergeCell ref="N50:T52"/>
+    <mergeCell ref="N53:T53"/>
+    <mergeCell ref="A50:C52"/>
+    <mergeCell ref="D50:E52"/>
+    <mergeCell ref="F50:F52"/>
+    <mergeCell ref="G50:G52"/>
+    <mergeCell ref="H50:H52"/>
+    <mergeCell ref="I50:I52"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="R47:S47"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="K47:K48"/>
+    <mergeCell ref="L47:L48"/>
+    <mergeCell ref="M47:M48"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="A47:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="R45:S45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="R46:S46"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="A37:A42"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="R34:S34"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="R31:S31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="R32:S32"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="R33:S33"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="R23:S23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="B28:C28"/>
     <mergeCell ref="A19:A31"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="N19:O19"/>
@@ -9516,90 +9564,42 @@
     <mergeCell ref="R26:S26"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="N23:O23"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="R23:S23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="R33:S33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="R34:S34"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="R31:S31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="R32:S32"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="A37:A42"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="A32:A36"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="R45:S45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="R46:S46"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="A43:A46"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="R47:S47"/>
-    <mergeCell ref="N48:O48"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="K47:K48"/>
-    <mergeCell ref="L47:L48"/>
-    <mergeCell ref="M47:M48"/>
-    <mergeCell ref="N47:O47"/>
-    <mergeCell ref="A47:C48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="J50:J52"/>
-    <mergeCell ref="K50:K52"/>
-    <mergeCell ref="L50:L52"/>
-    <mergeCell ref="M50:M52"/>
-    <mergeCell ref="N50:T52"/>
-    <mergeCell ref="N53:T53"/>
-    <mergeCell ref="A50:C52"/>
-    <mergeCell ref="D50:E52"/>
-    <mergeCell ref="F50:F52"/>
-    <mergeCell ref="G50:G52"/>
-    <mergeCell ref="H50:H52"/>
-    <mergeCell ref="I50:I52"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="N14:T14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="N15:T15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="N16:T16"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="A13:A18"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="N17:T18"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="N7:N11"/>
+    <mergeCell ref="S7:T11"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="N13:T13"/>
+    <mergeCell ref="B1:T1"/>
+    <mergeCell ref="A2:N2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="A3:C5"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G3:I4"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:M5"/>
+    <mergeCell ref="N3:N5"/>
+    <mergeCell ref="O3:T5"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="J4:K4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9616,9 +9616,9 @@
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="10" max="10" width="10.625" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="107" customFormat="1" ht="24.95" customHeight="1">
@@ -9740,7 +9740,7 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="6" max="35" width="6" customWidth="1"/>
   </cols>
@@ -10332,7 +10332,7 @@
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:68" s="138" customFormat="1" ht="30.75" customHeight="1">
       <c r="A1" s="126" t="s">
@@ -11063,12 +11063,12 @@
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="6" max="36" width="4.875" customWidth="1"/>
+    <col min="6" max="36" width="4.85546875" customWidth="1"/>
     <col min="37" max="40" width="8" customWidth="1"/>
-    <col min="41" max="42" width="6.625" customWidth="1"/>
-    <col min="52" max="68" width="7.875" customWidth="1"/>
+    <col min="41" max="42" width="6.5703125" customWidth="1"/>
+    <col min="52" max="68" width="7.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:68" s="138" customFormat="1" ht="30.75" customHeight="1">
@@ -11890,30 +11890,30 @@
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="21.95" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="21.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="20.75" style="123" customWidth="1"/>
-    <col min="2" max="2" width="7.875" style="124" customWidth="1"/>
-    <col min="3" max="3" width="9.75" style="124" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="7.25" style="125" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="7.875" style="124" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="8.625" style="124" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="8.625" style="123" customWidth="1"/>
-    <col min="8" max="8" width="9.125" style="124" customWidth="1"/>
-    <col min="9" max="9" width="9.75" style="124" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" style="123" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" style="124" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" style="124" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" style="125" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" style="124" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" style="124" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" style="123" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="124" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" style="124" customWidth="1"/>
     <col min="10" max="10" width="9" style="124"/>
     <col min="11" max="11" width="9" style="124" customWidth="1"/>
-    <col min="12" max="12" width="8.625" style="124" customWidth="1"/>
+    <col min="12" max="12" width="8.5703125" style="124" customWidth="1"/>
     <col min="13" max="13" width="9" style="124"/>
-    <col min="14" max="14" width="8.125" style="124" customWidth="1"/>
-    <col min="15" max="15" width="6.625" style="124" customWidth="1"/>
+    <col min="14" max="14" width="8.140625" style="124" customWidth="1"/>
+    <col min="15" max="15" width="6.5703125" style="124" customWidth="1"/>
     <col min="16" max="20" width="9" style="124"/>
-    <col min="21" max="22" width="8.125" style="124" customWidth="1"/>
-    <col min="23" max="24" width="7.625" style="124" customWidth="1"/>
+    <col min="21" max="22" width="8.140625" style="124" customWidth="1"/>
+    <col min="23" max="24" width="7.5703125" style="124" customWidth="1"/>
     <col min="25" max="25" width="9" style="124"/>
-    <col min="26" max="26" width="7.5" style="124" customWidth="1"/>
-    <col min="27" max="27" width="8.875" style="124" customWidth="1"/>
-    <col min="28" max="28" width="7.375" style="124" customWidth="1"/>
+    <col min="26" max="26" width="7.42578125" style="124" customWidth="1"/>
+    <col min="27" max="27" width="8.85546875" style="124" customWidth="1"/>
+    <col min="28" max="28" width="7.42578125" style="124" customWidth="1"/>
     <col min="29" max="30" width="9" style="124"/>
     <col min="31" max="31" width="7" style="124" customWidth="1"/>
     <col min="32" max="16384" width="9" style="124"/>
@@ -14136,11 +14136,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:16" s="107" customFormat="1" ht="24.95" customHeight="1">
       <c r="A1" s="102" t="s">
